--- a/Person_B_and_trucks/on_trucks/Processed_Standalone/7_225-80R17.xlsx
+++ b/Person_B_and_trucks/on_trucks/Processed_Standalone/7_225-80R17.xlsx
@@ -764,100 +764,100 @@
         <v>0</v>
       </c>
       <c r="M2">
-        <v>0.01300380348513583</v>
+        <v>0.01977693552662991</v>
       </c>
       <c r="N2">
-        <v>0.06470716043000752</v>
+        <v>0.05865020733038811</v>
       </c>
       <c r="O2">
-        <v>0.1768920421031213</v>
+        <v>0.1429966338535494</v>
       </c>
       <c r="P2">
-        <v>0</v>
+        <v>0.007050230914479279</v>
       </c>
       <c r="Q2">
-        <v>0.05352418943867731</v>
+        <v>0.05024226833750921</v>
       </c>
       <c r="R2">
-        <v>0.1025440908090517</v>
+        <v>0.08709797872776058</v>
       </c>
       <c r="S2">
-        <v>0.0302575094035128</v>
+        <v>0.03274916865459328</v>
       </c>
       <c r="T2">
-        <v>0</v>
+        <v>0.004374197891823924</v>
       </c>
       <c r="U2">
-        <v>0.1168701292929945</v>
+        <v>0.09786903926936527</v>
       </c>
       <c r="V2">
-        <v>0.2060485475538608</v>
+        <v>0.1649180104953571</v>
       </c>
       <c r="W2">
-        <v>0</v>
+        <v>0.0001641310668925238</v>
       </c>
       <c r="X2">
-        <v>0.05785250123565147</v>
+        <v>0.05349651817499251</v>
       </c>
       <c r="Y2">
-        <v>0</v>
+        <v>0.00114675557078174</v>
       </c>
       <c r="Z2">
-        <v>0.02963409442633952</v>
+        <v>0.03228045286346911</v>
       </c>
       <c r="AA2">
-        <v>0.001125721343911373</v>
+        <v>0.01084637583249803</v>
       </c>
       <c r="AB2">
-        <v>0.01243689992976523</v>
+        <v>0.01935070796044044</v>
       </c>
       <c r="AC2">
-        <v>0.01682819365710547</v>
+        <v>0.02265231088759751</v>
       </c>
       <c r="AD2">
-        <v>0</v>
+        <v>0.00398630669768841</v>
       </c>
       <c r="AE2">
-        <v>0.02826435346128461</v>
+        <v>0.0312506103932385</v>
       </c>
       <c r="AF2">
-        <v>0.03491450398798339</v>
+        <v>0.03625053929990321</v>
       </c>
       <c r="AG2">
-        <v>0</v>
+        <v>0.00826846386087781</v>
       </c>
       <c r="AH2">
-        <v>0.008973415952351228</v>
+        <v>0.01674668064001844</v>
       </c>
       <c r="AI2">
-        <v>0</v>
+        <v>0.003231202866946867</v>
       </c>
       <c r="AJ2">
-        <v>0.007073109023518038</v>
+        <v>0.0153179310941454</v>
       </c>
       <c r="AK2">
-        <v>0.01563887754088136</v>
+        <v>0.02175812119898861</v>
       </c>
       <c r="AL2">
-        <v>0.01395056229331972</v>
+        <v>0.02048875802052283</v>
       </c>
       <c r="AM2">
-        <v>0.004893159014755649</v>
+        <v>0.01367893134216448</v>
       </c>
       <c r="AN2">
-        <v>0</v>
+        <v>0.005123815778986358</v>
       </c>
       <c r="AO2">
-        <v>0</v>
+        <v>0.003703053179564085</v>
       </c>
       <c r="AP2">
-        <v>0.004567135616771063</v>
+        <v>0.01343381000163426</v>
       </c>
       <c r="AQ2">
-        <v>0</v>
+        <v>0.0008039955696647246</v>
       </c>
       <c r="AR2">
-        <v>0</v>
+        <v>0.0002958566975280415</v>
       </c>
     </row>
     <row r="3" spans="1:44">
@@ -874,34 +874,34 @@
         <v>0</v>
       </c>
       <c r="E3">
-        <v>0.2741814000016149</v>
+        <v>0.2730175572682059</v>
       </c>
       <c r="F3">
-        <v>0.07443462849669671</v>
+        <v>0.07436901087204138</v>
       </c>
       <c r="G3">
-        <v>0.1509708869539654</v>
+        <v>0.1504844663289183</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>0.1472449326097034</v>
+        <v>0.1467789976054456</v>
       </c>
       <c r="J3">
         <v>0</v>
       </c>
       <c r="K3">
-        <v>0.02094875236179295</v>
+        <v>0.02117720473232449</v>
       </c>
       <c r="L3">
-        <v>0.07368266161291535</v>
+        <v>0.07362117836753684</v>
       </c>
       <c r="M3">
-        <v>0.149209551886532</v>
+        <v>0.1487328152347547</v>
       </c>
       <c r="N3">
-        <v>0.02392896891116136</v>
+        <v>0.02414103579210835</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -910,7 +910,7 @@
         <v>0</v>
       </c>
       <c r="Q3">
-        <v>0.009294198521904442</v>
+        <v>0.009586728642288231</v>
       </c>
       <c r="R3">
         <v>0</v>
@@ -919,7 +919,7 @@
         <v>0</v>
       </c>
       <c r="T3">
-        <v>0.001420849088717846</v>
+        <v>0.001756667568519772</v>
       </c>
       <c r="U3">
         <v>0</v>
@@ -928,10 +928,10 @@
         <v>0</v>
       </c>
       <c r="W3">
-        <v>0.0154934716650069</v>
+        <v>0.01575191764290126</v>
       </c>
       <c r="X3">
-        <v>0.01122546621864679</v>
+        <v>0.01150737806139681</v>
       </c>
       <c r="Y3">
         <v>0</v>
@@ -943,16 +943,16 @@
         <v>0</v>
       </c>
       <c r="AB3">
-        <v>0.02565361780472893</v>
+        <v>0.02585620241617825</v>
       </c>
       <c r="AC3">
-        <v>0.01003981970945778</v>
+        <v>0.0103282503397541</v>
       </c>
       <c r="AD3">
         <v>0</v>
       </c>
       <c r="AE3">
-        <v>0.006946288660628832</v>
+        <v>0.007251727793475333</v>
       </c>
       <c r="AF3">
         <v>0</v>
@@ -961,7 +961,7 @@
         <v>0</v>
       </c>
       <c r="AH3">
-        <v>0.00532450549652647</v>
+        <v>0.005638861334150487</v>
       </c>
       <c r="AI3">
         <v>0</v>
@@ -1008,34 +1008,34 @@
         <v>0</v>
       </c>
       <c r="E4">
-        <v>0.1854996753135776</v>
+        <v>0.1827515623332572</v>
       </c>
       <c r="F4">
-        <v>0.02137935804147948</v>
+        <v>0.02210213066236698</v>
       </c>
       <c r="G4">
-        <v>0.1562103698850893</v>
+        <v>0.1540816794733505</v>
       </c>
       <c r="H4">
-        <v>0.02273371733624137</v>
+        <v>0.02342784739627361</v>
       </c>
       <c r="I4">
-        <v>0.09922162740270939</v>
+        <v>0.09829815892205611</v>
       </c>
       <c r="J4">
         <v>0</v>
       </c>
       <c r="K4">
-        <v>0.01492043414513093</v>
+        <v>0.01577980280923694</v>
       </c>
       <c r="L4">
-        <v>0.03360976426005838</v>
+        <v>0.03407388309848573</v>
       </c>
       <c r="M4">
-        <v>0.1687125481789583</v>
+        <v>0.166319456434434</v>
       </c>
       <c r="N4">
-        <v>0.05013855319846904</v>
+        <v>0.0502531142460921</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -1044,10 +1044,10 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>0.005237391215597353</v>
+        <v>0.006301540950314353</v>
       </c>
       <c r="R4">
-        <v>0.006620375154773804</v>
+        <v>0.007655276962598054</v>
       </c>
       <c r="S4">
         <v>0</v>
@@ -1056,16 +1056,16 @@
         <v>0</v>
       </c>
       <c r="U4">
-        <v>0.02914737337619114</v>
+        <v>0.02970586473669994</v>
       </c>
       <c r="V4">
         <v>0</v>
       </c>
       <c r="W4">
-        <v>0.01828068700667387</v>
+        <v>0.01906899162784233</v>
       </c>
       <c r="X4">
-        <v>0.04932887488570712</v>
+        <v>0.049460559351345</v>
       </c>
       <c r="Y4">
         <v>0</v>
@@ -1077,16 +1077,16 @@
         <v>0</v>
       </c>
       <c r="AB4">
-        <v>0.07660755328967615</v>
+        <v>0.07616233677397274</v>
       </c>
       <c r="AC4">
-        <v>0.04776304182488846</v>
+        <v>0.04792784118766415</v>
       </c>
       <c r="AD4">
         <v>0</v>
       </c>
       <c r="AE4">
-        <v>0.01429122955439394</v>
+        <v>0.01516390490222139</v>
       </c>
       <c r="AF4">
         <v>0</v>
@@ -1101,7 +1101,7 @@
         <v>0</v>
       </c>
       <c r="AJ4">
-        <v>0.0002974259303844077</v>
+        <v>0.001466048131788672</v>
       </c>
       <c r="AK4">
         <v>0</v>
@@ -1166,100 +1166,100 @@
         <v>0</v>
       </c>
       <c r="M5">
-        <v>0.1619070324096959</v>
+        <v>0.1395680392387812</v>
       </c>
       <c r="N5">
-        <v>0</v>
+        <v>0.004023299947250147</v>
       </c>
       <c r="O5">
-        <v>0.206635617414818</v>
+        <v>0.1753626243830134</v>
       </c>
       <c r="P5">
-        <v>0</v>
+        <v>0.0002729631966753183</v>
       </c>
       <c r="Q5">
-        <v>0.07664663686483485</v>
+        <v>0.07133738791341601</v>
       </c>
       <c r="R5">
-        <v>0.02791813557654366</v>
+        <v>0.03234182192100137</v>
       </c>
       <c r="S5">
-        <v>0.01240428936138394</v>
+        <v>0.01992668092784302</v>
       </c>
       <c r="T5">
-        <v>0.07024392445133758</v>
+        <v>0.06621354072234759</v>
       </c>
       <c r="U5">
-        <v>0.215770792750347</v>
+        <v>0.1826731577101383</v>
       </c>
       <c r="V5">
-        <v>0.06321525403400363</v>
+        <v>0.06058876315169125</v>
       </c>
       <c r="W5">
-        <v>0</v>
+        <v>3.445826967059206E-06</v>
       </c>
       <c r="X5">
-        <v>0</v>
+        <v>1.940766614641431E-05</v>
       </c>
       <c r="Y5">
-        <v>0.04263734784852644</v>
+        <v>0.04412104759659966</v>
       </c>
       <c r="Z5">
-        <v>0</v>
+        <v>0.002548067289397111</v>
       </c>
       <c r="AA5">
-        <v>0</v>
+        <v>0.007657036838537019</v>
       </c>
       <c r="AB5">
-        <v>0</v>
+        <v>0.005551173465534215</v>
       </c>
       <c r="AC5">
-        <v>0.01864208134227395</v>
+        <v>0.02491854857012161</v>
       </c>
       <c r="AD5">
-        <v>0</v>
+        <v>0.00468729786131945</v>
       </c>
       <c r="AE5">
-        <v>0.0289071488779056</v>
+        <v>0.03313329164489995</v>
       </c>
       <c r="AF5">
-        <v>0.03726537467397994</v>
+        <v>0.0398220618100648</v>
       </c>
       <c r="AG5">
-        <v>0</v>
+        <v>0.003094010578579543</v>
       </c>
       <c r="AH5">
-        <v>0</v>
+        <v>3.032577678982555E-05</v>
       </c>
       <c r="AI5">
-        <v>0</v>
+        <v>0.0005423646485641934</v>
       </c>
       <c r="AJ5">
-        <v>0</v>
+        <v>0.008584012512690265</v>
       </c>
       <c r="AK5">
-        <v>0.02429090895649751</v>
+        <v>0.02943909043343475</v>
       </c>
       <c r="AL5">
-        <v>0</v>
+        <v>0.001962078568612014</v>
       </c>
       <c r="AM5">
-        <v>0.0005361060469142327</v>
+        <v>0.01042902527635094</v>
       </c>
       <c r="AN5">
-        <v>0</v>
+        <v>0.001644331176734623</v>
       </c>
       <c r="AO5">
-        <v>0</v>
+        <v>0.001339617919130374</v>
       </c>
       <c r="AP5">
-        <v>0.01297934939093773</v>
+        <v>0.02038687959472574</v>
       </c>
       <c r="AQ5">
-        <v>0</v>
+        <v>0.007767585576351786</v>
       </c>
       <c r="AR5">
-        <v>0</v>
+        <v>1.102025629100425E-05</v>
       </c>
     </row>
     <row r="6" spans="1:44">
@@ -1273,34 +1273,34 @@
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.0187109963177049</v>
+        <v>0.01972116549166761</v>
       </c>
       <c r="E6">
-        <v>0.1177015998425562</v>
+        <v>0.115364681611895</v>
       </c>
       <c r="F6">
-        <v>0.276455136601797</v>
+        <v>0.2687504163333094</v>
       </c>
       <c r="G6">
-        <v>0.03638386751704333</v>
+        <v>0.03679647851388071</v>
       </c>
       <c r="H6">
-        <v>0.04698146537710059</v>
+        <v>0.0470357485624729</v>
       </c>
       <c r="I6">
-        <v>0.08152057879481077</v>
+        <v>0.08040701950452554</v>
       </c>
       <c r="J6">
         <v>0</v>
       </c>
       <c r="K6">
-        <v>0.01778441426110976</v>
+        <v>0.01882591318780199</v>
       </c>
       <c r="L6">
-        <v>0.1365668852907765</v>
+        <v>0.133592090766205</v>
       </c>
       <c r="M6">
-        <v>0.09107721257801897</v>
+        <v>0.08964052273364685</v>
       </c>
       <c r="N6">
         <v>0</v>
@@ -1309,10 +1309,10 @@
         <v>0</v>
       </c>
       <c r="P6">
-        <v>0.003513404858519884</v>
+        <v>0.005037437622988815</v>
       </c>
       <c r="Q6">
-        <v>0.007940276467537252</v>
+        <v>0.009314627083632277</v>
       </c>
       <c r="R6">
         <v>0</v>
@@ -1321,19 +1321,19 @@
         <v>0</v>
       </c>
       <c r="T6">
-        <v>0.02289006985968895</v>
+        <v>0.02375893547637149</v>
       </c>
       <c r="U6">
         <v>0</v>
       </c>
       <c r="V6">
-        <v>0.003386220553015345</v>
+        <v>0.004914553695215716</v>
       </c>
       <c r="W6">
-        <v>0.04983653427890315</v>
+        <v>0.0497942813808465</v>
       </c>
       <c r="X6">
-        <v>0</v>
+        <v>0.0009556005857234638</v>
       </c>
       <c r="Y6">
         <v>0</v>
@@ -1342,28 +1342,28 @@
         <v>0</v>
       </c>
       <c r="AA6">
-        <v>0.005713916020895102</v>
+        <v>0.007163544721411928</v>
       </c>
       <c r="AB6">
-        <v>0.06597176324457092</v>
+        <v>0.06538394319449514</v>
       </c>
       <c r="AC6">
-        <v>0.002410984200145435</v>
+        <v>0.003972292202554662</v>
       </c>
       <c r="AD6">
         <v>0</v>
       </c>
       <c r="AE6">
-        <v>0.004728449972345301</v>
+        <v>0.006211399421310312</v>
       </c>
       <c r="AF6">
         <v>0</v>
       </c>
       <c r="AG6">
-        <v>0.00858061769899039</v>
+        <v>0.009933316986634629</v>
       </c>
       <c r="AH6">
-        <v>0.00184560626447008</v>
+        <v>0.003426030923410007</v>
       </c>
       <c r="AI6">
         <v>0</v>
@@ -1410,34 +1410,34 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>0.237060417707588</v>
+        <v>0.2197065473858094</v>
       </c>
       <c r="F7">
-        <v>0.04001420974718209</v>
+        <v>0.04099356884151988</v>
       </c>
       <c r="G7">
-        <v>0.05988859487536053</v>
+        <v>0.0590188361113513</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>0.1000444443789615</v>
+        <v>0.09543857514132928</v>
       </c>
       <c r="J7">
         <v>0</v>
       </c>
       <c r="K7">
-        <v>0.001312967183291969</v>
+        <v>0.005893099750799729</v>
       </c>
       <c r="L7">
-        <v>0.0215548961564401</v>
+        <v>0.02425171449257719</v>
       </c>
       <c r="M7">
-        <v>0.2361517222342079</v>
+        <v>0.218882397170901</v>
       </c>
       <c r="N7">
-        <v>0.03601195187172772</v>
+        <v>0.03736368205898147</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -1446,7 +1446,7 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>0.08062104918101938</v>
+        <v>0.07782233758366679</v>
       </c>
       <c r="R7">
         <v>0</v>
@@ -1455,19 +1455,19 @@
         <v>0</v>
       </c>
       <c r="T7">
-        <v>0.0198880687797913</v>
+        <v>0.02273996915992949</v>
       </c>
       <c r="U7">
         <v>0</v>
       </c>
       <c r="V7">
-        <v>0</v>
+        <v>0.002599193371429465</v>
       </c>
       <c r="W7">
-        <v>0.102947455388412</v>
+        <v>0.09807148926647717</v>
       </c>
       <c r="X7">
-        <v>0.003678510490374025</v>
+        <v>0.008038552305609058</v>
       </c>
       <c r="Y7">
         <v>0</v>
@@ -1476,31 +1476,31 @@
         <v>0</v>
       </c>
       <c r="AA7">
-        <v>0.01078114204883949</v>
+        <v>0.01448035321339963</v>
       </c>
       <c r="AB7">
-        <v>0</v>
+        <v>0.002417405712651382</v>
       </c>
       <c r="AC7">
-        <v>0.01210324546881327</v>
+        <v>0.01567944779417219</v>
       </c>
       <c r="AD7">
-        <v>0.007643859828560756</v>
+        <v>0.01163496453059526</v>
       </c>
       <c r="AE7">
-        <v>0.02344639589453482</v>
+        <v>0.02596722861289244</v>
       </c>
       <c r="AF7">
-        <v>0</v>
+        <v>0.004167229576818829</v>
       </c>
       <c r="AG7">
-        <v>0</v>
+        <v>0.002664680269373004</v>
       </c>
       <c r="AH7">
-        <v>0.006851068764895059</v>
+        <v>0.01091593494957708</v>
       </c>
       <c r="AI7">
-        <v>0</v>
+        <v>0.00125279270013869</v>
       </c>
       <c r="AJ7">
         <v>0</v>
@@ -1544,64 +1544,64 @@
         <v>0</v>
       </c>
       <c r="E8">
-        <v>0.1695358351269083</v>
+        <v>0.1888033250935869</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>0.2120359611563855</v>
+        <v>0.2382768338344848</v>
       </c>
       <c r="H8">
-        <v>0.01885676997110863</v>
+        <v>0.01340097353619611</v>
       </c>
       <c r="I8">
-        <v>0.070008596732707</v>
+        <v>0.07294574633634304</v>
       </c>
       <c r="J8">
-        <v>0.003423043951407803</v>
+        <v>0</v>
       </c>
       <c r="K8">
-        <v>0.02834424888216704</v>
+        <v>0.02444514951133982</v>
       </c>
       <c r="L8">
-        <v>0.04520607710482242</v>
+        <v>0.04407365144525095</v>
       </c>
       <c r="M8">
-        <v>0.05181214576262194</v>
+        <v>0.05176363794688948</v>
       </c>
       <c r="N8">
-        <v>0.04428613939197446</v>
+        <v>0.04300277117430543</v>
       </c>
       <c r="O8">
-        <v>0.07508948447959216</v>
+        <v>0.07886030160572505</v>
       </c>
       <c r="P8">
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>0.01167139526272802</v>
+        <v>0.005036628964720318</v>
       </c>
       <c r="R8">
-        <v>0.004836515534857022</v>
+        <v>0</v>
       </c>
       <c r="S8">
-        <v>0.007344688481420317</v>
+        <v>0</v>
       </c>
       <c r="T8">
         <v>0</v>
       </c>
       <c r="U8">
-        <v>0.01811058344564968</v>
+        <v>0.01253235339224574</v>
       </c>
       <c r="V8">
         <v>0</v>
       </c>
       <c r="W8">
-        <v>0.0323701207636364</v>
+        <v>0.02913158285460725</v>
       </c>
       <c r="X8">
-        <v>0.05330010146524614</v>
+        <v>0.05349573609193475</v>
       </c>
       <c r="Y8">
         <v>0</v>
@@ -1613,25 +1613,25 @@
         <v>0</v>
       </c>
       <c r="AB8">
-        <v>0.03669929291282541</v>
+        <v>0.03417108170256839</v>
       </c>
       <c r="AC8">
-        <v>0.07293008998960911</v>
+        <v>0.07634659559692107</v>
       </c>
       <c r="AD8">
-        <v>0.0001999157043043928</v>
+        <v>0</v>
       </c>
       <c r="AE8">
-        <v>0.03373454491494964</v>
+        <v>0.03071988050175938</v>
       </c>
       <c r="AF8">
-        <v>0.009916464225886242</v>
+        <v>0.002993750411121527</v>
       </c>
       <c r="AG8">
         <v>0</v>
       </c>
       <c r="AH8">
-        <v>0.0002879847391923764</v>
+        <v>0</v>
       </c>
       <c r="AI8">
         <v>0</v>
@@ -1681,40 +1681,40 @@
         <v>0</v>
       </c>
       <c r="F9">
-        <v>0.2687265851690533</v>
+        <v>0.2572275844632843</v>
       </c>
       <c r="G9">
-        <v>0.1533257310600186</v>
+        <v>0.147840802388748</v>
       </c>
       <c r="H9">
-        <v>0.04962130888350314</v>
+        <v>0.04954089710321095</v>
       </c>
       <c r="I9">
-        <v>0.0719948609001443</v>
+        <v>0.07074845988576424</v>
       </c>
       <c r="J9">
-        <v>0.02078104966411428</v>
+        <v>0.02220363712744239</v>
       </c>
       <c r="K9">
         <v>0</v>
       </c>
       <c r="L9">
-        <v>0.01558006612700811</v>
+        <v>0.01727370088789646</v>
       </c>
       <c r="M9">
-        <v>0.08164189039792517</v>
+        <v>0.07989273807579683</v>
       </c>
       <c r="N9">
-        <v>0.03134966125605271</v>
+        <v>0.03222146950800255</v>
       </c>
       <c r="O9">
-        <v>0.08431610118552069</v>
+        <v>0.08242758337570853</v>
       </c>
       <c r="P9">
-        <v>0.01955558390996584</v>
+        <v>0.02104203605937587</v>
       </c>
       <c r="Q9">
-        <v>0.004837223573853714</v>
+        <v>0.007090717527022409</v>
       </c>
       <c r="R9">
         <v>0</v>
@@ -1726,19 +1726,19 @@
         <v>0</v>
       </c>
       <c r="U9">
-        <v>0.006829478877434341</v>
+        <v>0.008979147196041225</v>
       </c>
       <c r="V9">
         <v>0</v>
       </c>
       <c r="W9">
-        <v>0</v>
+        <v>0.002002942503122704</v>
       </c>
       <c r="X9">
-        <v>0.04473829811572618</v>
+        <v>0.04491236260191722</v>
       </c>
       <c r="Y9">
-        <v>0.00889193724827324</v>
+        <v>0.01093412132591723</v>
       </c>
       <c r="Z9">
         <v>0</v>
@@ -1747,19 +1747,19 @@
         <v>0</v>
       </c>
       <c r="AB9">
-        <v>0.009197753996477443</v>
+        <v>0.01122400054950555</v>
       </c>
       <c r="AC9">
-        <v>0.06254640729869169</v>
+        <v>0.06179240888403645</v>
       </c>
       <c r="AD9">
-        <v>0.03049135153439212</v>
+        <v>0.0314078902741172</v>
       </c>
       <c r="AE9">
-        <v>0.0009752397220492662</v>
+        <v>0.003429999508648251</v>
       </c>
       <c r="AF9">
-        <v>0.02866029444961197</v>
+        <v>0.02967225803945767</v>
       </c>
       <c r="AG9">
         <v>0</v>
@@ -1774,7 +1774,7 @@
         <v>0</v>
       </c>
       <c r="AK9">
-        <v>0.00593917663018402</v>
+        <v>0.008135242714984042</v>
       </c>
       <c r="AL9">
         <v>0</v>
@@ -1815,64 +1815,64 @@
         <v>0</v>
       </c>
       <c r="F10">
-        <v>0.3112403014136277</v>
+        <v>0.3163155235395083</v>
       </c>
       <c r="G10">
-        <v>0.1139520862428064</v>
+        <v>0.1152533703780135</v>
       </c>
       <c r="H10">
-        <v>0.07821298190748724</v>
+        <v>0.07883061059228176</v>
       </c>
       <c r="I10">
-        <v>0.01703149001503387</v>
+        <v>0.01647877430607383</v>
       </c>
       <c r="J10">
-        <v>0.02106930163229724</v>
+        <v>0.02059382546168662</v>
       </c>
       <c r="K10">
         <v>0</v>
       </c>
       <c r="L10">
-        <v>0.05789989224272971</v>
+        <v>0.05812895062834336</v>
       </c>
       <c r="M10">
-        <v>0.06008247820790109</v>
+        <v>0.06035328741012961</v>
       </c>
       <c r="N10">
-        <v>0.04873954311717859</v>
+        <v>0.04879337264007068</v>
       </c>
       <c r="O10">
-        <v>0.1038736770462313</v>
+        <v>0.104982170693068</v>
       </c>
       <c r="P10">
-        <v>0.006529788276511063</v>
+        <v>0.005776184890994085</v>
       </c>
       <c r="Q10">
-        <v>0.0008620224154463332</v>
+        <v>0</v>
       </c>
       <c r="R10">
-        <v>0.0001019489768858186</v>
+        <v>0</v>
       </c>
       <c r="S10">
-        <v>0.003647615312103238</v>
+        <v>0.002838878668694233</v>
       </c>
       <c r="T10">
         <v>0</v>
       </c>
       <c r="U10">
-        <v>0.001481680747966236</v>
+        <v>0.0006315118135821621</v>
       </c>
       <c r="V10">
-        <v>0.0005655871415614086</v>
+        <v>0</v>
       </c>
       <c r="W10">
-        <v>0.001520848963242606</v>
+        <v>0.0006714292799758901</v>
       </c>
       <c r="X10">
-        <v>0.05248524338792201</v>
+        <v>0.05261072463385896</v>
       </c>
       <c r="Y10">
-        <v>0.02300536592642996</v>
+        <v>0.02256692484474082</v>
       </c>
       <c r="Z10">
         <v>0</v>
@@ -1881,19 +1881,19 @@
         <v>0</v>
       </c>
       <c r="AB10">
-        <v>0.008834524086474987</v>
+        <v>0.008125008129211932</v>
       </c>
       <c r="AC10">
-        <v>0.04994788178616702</v>
+        <v>0.05002482569125648</v>
       </c>
       <c r="AD10">
-        <v>0.01068076384256723</v>
+        <v>0.01000656471530021</v>
       </c>
       <c r="AE10">
         <v>0</v>
       </c>
       <c r="AF10">
-        <v>0.02408070565587792</v>
+        <v>0.02366283481176901</v>
       </c>
       <c r="AG10">
         <v>0</v>
@@ -1908,7 +1908,7 @@
         <v>0</v>
       </c>
       <c r="AK10">
-        <v>0.004154271655551009</v>
+        <v>0.003355226871440836</v>
       </c>
       <c r="AL10">
         <v>0</v>
@@ -1946,43 +1946,43 @@
         <v>0</v>
       </c>
       <c r="E11">
-        <v>0.05790839436270686</v>
+        <v>0.0575756089541354</v>
       </c>
       <c r="F11">
-        <v>0.05879804114054461</v>
+        <v>0.05841100957919646</v>
       </c>
       <c r="G11">
-        <v>0.2873347873814117</v>
+        <v>0.2730127430031778</v>
       </c>
       <c r="H11">
-        <v>0.03929130503985956</v>
+        <v>0.04009369540758781</v>
       </c>
       <c r="I11">
-        <v>0.07267239288061776</v>
+        <v>0.07143937364987253</v>
       </c>
       <c r="J11">
-        <v>0.004210491890561609</v>
+        <v>0.007151932493769334</v>
       </c>
       <c r="K11">
         <v>0</v>
       </c>
       <c r="L11">
-        <v>0.0979825755022528</v>
+        <v>0.09520626957896633</v>
       </c>
       <c r="M11">
-        <v>0.04840697322117776</v>
+        <v>0.04865353633123048</v>
       </c>
       <c r="N11">
-        <v>0.03270360753729967</v>
+        <v>0.03390768231964361</v>
       </c>
       <c r="O11">
-        <v>0.1474192712658725</v>
+        <v>0.1416285661248582</v>
       </c>
       <c r="P11">
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>0.008054320307734892</v>
+        <v>0.01076138373029104</v>
       </c>
       <c r="R11">
         <v>0</v>
@@ -1994,40 +1994,40 @@
         <v>0</v>
       </c>
       <c r="U11">
-        <v>0</v>
+        <v>0.0005742479696280816</v>
       </c>
       <c r="V11">
         <v>0</v>
       </c>
       <c r="W11">
-        <v>0.00686127026772347</v>
+        <v>0.009641079836674926</v>
       </c>
       <c r="X11">
-        <v>0.03115499958912984</v>
+        <v>0.03245350063753838</v>
       </c>
       <c r="Y11">
-        <v>0.0009782008081874304</v>
+        <v>0.004116730143958617</v>
       </c>
       <c r="Z11">
         <v>0</v>
       </c>
       <c r="AA11">
-        <v>0</v>
+        <v>0.001661318612865093</v>
       </c>
       <c r="AB11">
-        <v>0.01955169079049125</v>
+        <v>0.02155770281683633</v>
       </c>
       <c r="AC11">
-        <v>0.06958300469810365</v>
+        <v>0.06853836070516064</v>
       </c>
       <c r="AD11">
-        <v>0</v>
+        <v>0.0003095154810681437</v>
       </c>
       <c r="AE11">
-        <v>0.003905882974898528</v>
+        <v>0.006865897086365748</v>
       </c>
       <c r="AF11">
-        <v>0.01318279034142605</v>
+        <v>0.01557714564668372</v>
       </c>
       <c r="AG11">
         <v>0</v>
@@ -2039,7 +2039,7 @@
         <v>0</v>
       </c>
       <c r="AJ11">
-        <v>0</v>
+        <v>0.0008626998904912667</v>
       </c>
       <c r="AK11">
         <v>0</v>
@@ -2251,100 +2251,100 @@
         <v>0</v>
       </c>
       <c r="M2">
-        <v>0.01300380348513583</v>
+        <v>0.01977693552662991</v>
       </c>
       <c r="N2">
-        <v>0.07771096391514334</v>
+        <v>0.07842714285701802</v>
       </c>
       <c r="O2">
-        <v>0.2546030060182646</v>
+        <v>0.2214237767105675</v>
       </c>
       <c r="P2">
-        <v>0.2546030060182646</v>
+        <v>0.2284740076250467</v>
       </c>
       <c r="Q2">
-        <v>0.3081271954569419</v>
+        <v>0.2787162759625559</v>
       </c>
       <c r="R2">
-        <v>0.4106712862659936</v>
+        <v>0.3658142546903165</v>
       </c>
       <c r="S2">
-        <v>0.4409287956695064</v>
+        <v>0.3985634233449098</v>
       </c>
       <c r="T2">
-        <v>0.4409287956695064</v>
+        <v>0.4029376212367337</v>
       </c>
       <c r="U2">
-        <v>0.5577989249625009</v>
+        <v>0.500806660506099</v>
       </c>
       <c r="V2">
-        <v>0.7638474725163618</v>
+        <v>0.6657246710014562</v>
       </c>
       <c r="W2">
-        <v>0.7638474725163618</v>
+        <v>0.6658888020683487</v>
       </c>
       <c r="X2">
-        <v>0.8216999737520132</v>
+        <v>0.7193853202433411</v>
       </c>
       <c r="Y2">
-        <v>0.8216999737520132</v>
+        <v>0.7205320758141228</v>
       </c>
       <c r="Z2">
-        <v>0.8513340681783527</v>
+        <v>0.752812528677592</v>
       </c>
       <c r="AA2">
-        <v>0.8524597895222641</v>
+        <v>0.76365890451009</v>
       </c>
       <c r="AB2">
-        <v>0.8648966894520294</v>
+        <v>0.7830096124705305</v>
       </c>
       <c r="AC2">
-        <v>0.8817248831091348</v>
+        <v>0.805661923358128</v>
       </c>
       <c r="AD2">
-        <v>0.8817248831091348</v>
+        <v>0.8096482300558164</v>
       </c>
       <c r="AE2">
-        <v>0.9099892365704194</v>
+        <v>0.8408988404490549</v>
       </c>
       <c r="AF2">
-        <v>0.9449037405584028</v>
+        <v>0.8771493797489581</v>
       </c>
       <c r="AG2">
-        <v>0.9449037405584028</v>
+        <v>0.8854178436098359</v>
       </c>
       <c r="AH2">
-        <v>0.953877156510754</v>
+        <v>0.9021645242498544</v>
       </c>
       <c r="AI2">
-        <v>0.953877156510754</v>
+        <v>0.9053957271168013</v>
       </c>
       <c r="AJ2">
-        <v>0.960950265534272</v>
+        <v>0.9207136582109466</v>
       </c>
       <c r="AK2">
-        <v>0.9765891430751533</v>
+        <v>0.9424717794099352</v>
       </c>
       <c r="AL2">
-        <v>0.990539705368473</v>
+        <v>0.9629605374304581</v>
       </c>
       <c r="AM2">
-        <v>0.9954328643832286</v>
+        <v>0.9766394687726225</v>
       </c>
       <c r="AN2">
-        <v>0.9954328643832286</v>
+        <v>0.9817632845516089</v>
       </c>
       <c r="AO2">
-        <v>0.9954328643832286</v>
+        <v>0.985466337731173</v>
       </c>
       <c r="AP2">
-        <v>0.9999999999999997</v>
+        <v>0.9989001477328072</v>
       </c>
       <c r="AQ2">
-        <v>0.9999999999999997</v>
+        <v>0.9997041433024719</v>
       </c>
       <c r="AR2">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:44">
@@ -2361,124 +2361,124 @@
         <v>0</v>
       </c>
       <c r="E3">
-        <v>0.2741814000016149</v>
+        <v>0.2730175572682059</v>
       </c>
       <c r="F3">
-        <v>0.3486160284983116</v>
+        <v>0.3473865681402473</v>
       </c>
       <c r="G3">
-        <v>0.4995869154522771</v>
+        <v>0.4978710344691656</v>
       </c>
       <c r="H3">
-        <v>0.4995869154522771</v>
+        <v>0.4978710344691656</v>
       </c>
       <c r="I3">
-        <v>0.6468318480619805</v>
+        <v>0.6446500320746111</v>
       </c>
       <c r="J3">
-        <v>0.6468318480619805</v>
+        <v>0.6446500320746111</v>
       </c>
       <c r="K3">
-        <v>0.6677806004237734</v>
+        <v>0.6658272368069357</v>
       </c>
       <c r="L3">
-        <v>0.7414632620366888</v>
+        <v>0.7394484151744725</v>
       </c>
       <c r="M3">
-        <v>0.8906728139232208</v>
+        <v>0.8881812304092271</v>
       </c>
       <c r="N3">
-        <v>0.9146017828343822</v>
+        <v>0.9123222662013355</v>
       </c>
       <c r="O3">
-        <v>0.9146017828343822</v>
+        <v>0.9123222662013355</v>
       </c>
       <c r="P3">
-        <v>0.9146017828343822</v>
+        <v>0.9123222662013355</v>
       </c>
       <c r="Q3">
-        <v>0.9238959813562867</v>
+        <v>0.9219089948436238</v>
       </c>
       <c r="R3">
-        <v>0.9238959813562867</v>
+        <v>0.9219089948436238</v>
       </c>
       <c r="S3">
-        <v>0.9238959813562867</v>
+        <v>0.9219089948436238</v>
       </c>
       <c r="T3">
-        <v>0.9253168304450046</v>
+        <v>0.9236656624121435</v>
       </c>
       <c r="U3">
-        <v>0.9253168304450046</v>
+        <v>0.9236656624121435</v>
       </c>
       <c r="V3">
-        <v>0.9253168304450046</v>
+        <v>0.9236656624121435</v>
       </c>
       <c r="W3">
-        <v>0.9408103021100115</v>
+        <v>0.9394175800550448</v>
       </c>
       <c r="X3">
-        <v>0.9520357683286583</v>
+        <v>0.9509249581164416</v>
       </c>
       <c r="Y3">
-        <v>0.9520357683286583</v>
+        <v>0.9509249581164416</v>
       </c>
       <c r="Z3">
-        <v>0.9520357683286583</v>
+        <v>0.9509249581164416</v>
       </c>
       <c r="AA3">
-        <v>0.9520357683286583</v>
+        <v>0.9509249581164416</v>
       </c>
       <c r="AB3">
-        <v>0.9776893861333873</v>
+        <v>0.9767811605326199</v>
       </c>
       <c r="AC3">
-        <v>0.9877292058428451</v>
+        <v>0.9871094108723739</v>
       </c>
       <c r="AD3">
-        <v>0.9877292058428451</v>
+        <v>0.9871094108723739</v>
       </c>
       <c r="AE3">
-        <v>0.9946754945034739</v>
+        <v>0.9943611386658493</v>
       </c>
       <c r="AF3">
-        <v>0.9946754945034739</v>
+        <v>0.9943611386658493</v>
       </c>
       <c r="AG3">
-        <v>0.9946754945034739</v>
+        <v>0.9943611386658493</v>
       </c>
       <c r="AH3">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="AI3">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="AJ3">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="AK3">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="AL3">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="AM3">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="AN3">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="AO3">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="AP3">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="AQ3">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="AR3">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
     </row>
     <row r="4" spans="1:44">
@@ -2495,97 +2495,97 @@
         <v>0</v>
       </c>
       <c r="E4">
-        <v>0.1854996753135776</v>
+        <v>0.1827515623332572</v>
       </c>
       <c r="F4">
-        <v>0.2068790333550571</v>
+        <v>0.2048536929956242</v>
       </c>
       <c r="G4">
-        <v>0.3630894032401464</v>
+        <v>0.3589353724689748</v>
       </c>
       <c r="H4">
-        <v>0.3858231205763877</v>
+        <v>0.3823632198652484</v>
       </c>
       <c r="I4">
-        <v>0.4850447479790971</v>
+        <v>0.4806613787873045</v>
       </c>
       <c r="J4">
-        <v>0.4850447479790971</v>
+        <v>0.4806613787873045</v>
       </c>
       <c r="K4">
-        <v>0.4999651821242281</v>
+        <v>0.4964411815965415</v>
       </c>
       <c r="L4">
-        <v>0.5335749463842865</v>
+        <v>0.5305150646950272</v>
       </c>
       <c r="M4">
-        <v>0.7022874945632447</v>
+        <v>0.6968345211294612</v>
       </c>
       <c r="N4">
-        <v>0.7524260477617137</v>
+        <v>0.7470876353755533</v>
       </c>
       <c r="O4">
-        <v>0.7524260477617137</v>
+        <v>0.7470876353755533</v>
       </c>
       <c r="P4">
-        <v>0.7524260477617137</v>
+        <v>0.7470876353755533</v>
       </c>
       <c r="Q4">
-        <v>0.757663438977311</v>
+        <v>0.7533891763258677</v>
       </c>
       <c r="R4">
-        <v>0.7642838141320848</v>
+        <v>0.7610444532884657</v>
       </c>
       <c r="S4">
-        <v>0.7642838141320848</v>
+        <v>0.7610444532884657</v>
       </c>
       <c r="T4">
-        <v>0.7642838141320848</v>
+        <v>0.7610444532884657</v>
       </c>
       <c r="U4">
-        <v>0.7934311875082759</v>
+        <v>0.7907503180251656</v>
       </c>
       <c r="V4">
-        <v>0.7934311875082759</v>
+        <v>0.7907503180251656</v>
       </c>
       <c r="W4">
-        <v>0.8117118745149497</v>
+        <v>0.809819309653008</v>
       </c>
       <c r="X4">
-        <v>0.8610407494006569</v>
+        <v>0.8592798690043529</v>
       </c>
       <c r="Y4">
-        <v>0.8610407494006569</v>
+        <v>0.8592798690043529</v>
       </c>
       <c r="Z4">
-        <v>0.8610407494006569</v>
+        <v>0.8592798690043529</v>
       </c>
       <c r="AA4">
-        <v>0.8610407494006569</v>
+        <v>0.8592798690043529</v>
       </c>
       <c r="AB4">
-        <v>0.9376483026903331</v>
+        <v>0.9354422057783257</v>
       </c>
       <c r="AC4">
-        <v>0.9854113445152215</v>
+        <v>0.9833700469659898</v>
       </c>
       <c r="AD4">
-        <v>0.9854113445152215</v>
+        <v>0.9833700469659898</v>
       </c>
       <c r="AE4">
-        <v>0.9997025740696155</v>
+        <v>0.9985339518682113</v>
       </c>
       <c r="AF4">
-        <v>0.9997025740696155</v>
+        <v>0.9985339518682113</v>
       </c>
       <c r="AG4">
-        <v>0.9997025740696155</v>
+        <v>0.9985339518682113</v>
       </c>
       <c r="AH4">
-        <v>0.9997025740696155</v>
+        <v>0.9985339518682113</v>
       </c>
       <c r="AI4">
-        <v>0.9997025740696155</v>
+        <v>0.9985339518682113</v>
       </c>
       <c r="AJ4">
         <v>0.9999999999999999</v>
@@ -2653,100 +2653,100 @@
         <v>0</v>
       </c>
       <c r="M5">
-        <v>0.1619070324096959</v>
+        <v>0.1395680392387812</v>
       </c>
       <c r="N5">
-        <v>0.1619070324096959</v>
+        <v>0.1435913391860314</v>
       </c>
       <c r="O5">
-        <v>0.3685426498245139</v>
+        <v>0.3189539635690448</v>
       </c>
       <c r="P5">
-        <v>0.3685426498245139</v>
+        <v>0.3192269267657201</v>
       </c>
       <c r="Q5">
-        <v>0.4451892866893488</v>
+        <v>0.3905643146791361</v>
       </c>
       <c r="R5">
-        <v>0.4731074222658924</v>
+        <v>0.4229061366001375</v>
       </c>
       <c r="S5">
-        <v>0.4855117116272764</v>
+        <v>0.4428328175279805</v>
       </c>
       <c r="T5">
-        <v>0.5557556360786139</v>
+        <v>0.5090463582503281</v>
       </c>
       <c r="U5">
-        <v>0.7715264288289609</v>
+        <v>0.6917195159604663</v>
       </c>
       <c r="V5">
-        <v>0.8347416828629646</v>
+        <v>0.7523082791121576</v>
       </c>
       <c r="W5">
-        <v>0.8347416828629646</v>
+        <v>0.7523117249391247</v>
       </c>
       <c r="X5">
-        <v>0.8347416828629646</v>
+        <v>0.7523311326052711</v>
       </c>
       <c r="Y5">
-        <v>0.877379030711491</v>
+        <v>0.7964521802018707</v>
       </c>
       <c r="Z5">
-        <v>0.877379030711491</v>
+        <v>0.7990002474912679</v>
       </c>
       <c r="AA5">
-        <v>0.877379030711491</v>
+        <v>0.8066572843298049</v>
       </c>
       <c r="AB5">
-        <v>0.877379030711491</v>
+        <v>0.8122084577953391</v>
       </c>
       <c r="AC5">
-        <v>0.896021112053765</v>
+        <v>0.8371270063654608</v>
       </c>
       <c r="AD5">
-        <v>0.896021112053765</v>
+        <v>0.8418143042267803</v>
       </c>
       <c r="AE5">
-        <v>0.9249282609316706</v>
+        <v>0.8749475958716803</v>
       </c>
       <c r="AF5">
-        <v>0.9621936356056505</v>
+        <v>0.914769657681745</v>
       </c>
       <c r="AG5">
-        <v>0.9621936356056505</v>
+        <v>0.9178636682603245</v>
       </c>
       <c r="AH5">
-        <v>0.9621936356056505</v>
+        <v>0.9178939940371144</v>
       </c>
       <c r="AI5">
-        <v>0.9621936356056505</v>
+        <v>0.9184363586856785</v>
       </c>
       <c r="AJ5">
-        <v>0.9621936356056505</v>
+        <v>0.9270203711983688</v>
       </c>
       <c r="AK5">
-        <v>0.9864845445621481</v>
+        <v>0.9564594616318035</v>
       </c>
       <c r="AL5">
-        <v>0.9864845445621481</v>
+        <v>0.9584215402004155</v>
       </c>
       <c r="AM5">
-        <v>0.9870206506090623</v>
+        <v>0.9688505654767664</v>
       </c>
       <c r="AN5">
-        <v>0.9870206506090623</v>
+        <v>0.970494896653501</v>
       </c>
       <c r="AO5">
-        <v>0.9870206506090623</v>
+        <v>0.9718345145726314</v>
       </c>
       <c r="AP5">
-        <v>1</v>
+        <v>0.9922213941673571</v>
       </c>
       <c r="AQ5">
-        <v>1</v>
+        <v>0.9999889797437089</v>
       </c>
       <c r="AR5">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
     </row>
     <row r="6" spans="1:44">
@@ -2760,127 +2760,127 @@
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.0187109963177049</v>
+        <v>0.01972116549166761</v>
       </c>
       <c r="E6">
-        <v>0.1364125961602611</v>
+        <v>0.1350858471035626</v>
       </c>
       <c r="F6">
-        <v>0.4128677327620581</v>
+        <v>0.403836263436872</v>
       </c>
       <c r="G6">
-        <v>0.4492516002791014</v>
+        <v>0.4406327419507527</v>
       </c>
       <c r="H6">
-        <v>0.496233065656202</v>
+        <v>0.4876684905132256</v>
       </c>
       <c r="I6">
-        <v>0.5777536444510127</v>
+        <v>0.5680755100177511</v>
       </c>
       <c r="J6">
-        <v>0.5777536444510127</v>
+        <v>0.5680755100177511</v>
       </c>
       <c r="K6">
-        <v>0.5955380587121225</v>
+        <v>0.5869014232055532</v>
       </c>
       <c r="L6">
-        <v>0.732104944002899</v>
+        <v>0.7204935139717582</v>
       </c>
       <c r="M6">
-        <v>0.823182156580918</v>
+        <v>0.8101340367054051</v>
       </c>
       <c r="N6">
-        <v>0.823182156580918</v>
+        <v>0.8101340367054051</v>
       </c>
       <c r="O6">
-        <v>0.823182156580918</v>
+        <v>0.8101340367054051</v>
       </c>
       <c r="P6">
-        <v>0.8266955614394379</v>
+        <v>0.8151714743283939</v>
       </c>
       <c r="Q6">
-        <v>0.8346358379069752</v>
+        <v>0.8244861014120262</v>
       </c>
       <c r="R6">
-        <v>0.8346358379069752</v>
+        <v>0.8244861014120262</v>
       </c>
       <c r="S6">
-        <v>0.8346358379069752</v>
+        <v>0.8244861014120262</v>
       </c>
       <c r="T6">
-        <v>0.8575259077666642</v>
+        <v>0.8482450368883977</v>
       </c>
       <c r="U6">
-        <v>0.8575259077666642</v>
+        <v>0.8482450368883977</v>
       </c>
       <c r="V6">
-        <v>0.8609121283196794</v>
+        <v>0.8531595905836135</v>
       </c>
       <c r="W6">
-        <v>0.9107486625985826</v>
+        <v>0.90295387196446</v>
       </c>
       <c r="X6">
-        <v>0.9107486625985826</v>
+        <v>0.9039094725501834</v>
       </c>
       <c r="Y6">
-        <v>0.9107486625985826</v>
+        <v>0.9039094725501834</v>
       </c>
       <c r="Z6">
-        <v>0.9107486625985826</v>
+        <v>0.9039094725501834</v>
       </c>
       <c r="AA6">
-        <v>0.9164625786194777</v>
+        <v>0.9110730172715953</v>
       </c>
       <c r="AB6">
-        <v>0.9824343418640485</v>
+        <v>0.9764569604660904</v>
       </c>
       <c r="AC6">
-        <v>0.9848453260641939</v>
+        <v>0.9804292526686451</v>
       </c>
       <c r="AD6">
-        <v>0.9848453260641939</v>
+        <v>0.9804292526686451</v>
       </c>
       <c r="AE6">
-        <v>0.9895737760365393</v>
+        <v>0.9866406520899554</v>
       </c>
       <c r="AF6">
-        <v>0.9895737760365393</v>
+        <v>0.9866406520899554</v>
       </c>
       <c r="AG6">
-        <v>0.9981543937355297</v>
+        <v>0.99657396907659</v>
       </c>
       <c r="AH6">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="AI6">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="AJ6">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="AK6">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="AL6">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="AM6">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="AN6">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="AO6">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="AP6">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="AQ6">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="AR6">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:44">
@@ -2897,124 +2897,124 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>0.237060417707588</v>
+        <v>0.2197065473858094</v>
       </c>
       <c r="F7">
-        <v>0.2770746274547701</v>
+        <v>0.2607001162273293</v>
       </c>
       <c r="G7">
-        <v>0.3369632223301306</v>
+        <v>0.3197189523386806</v>
       </c>
       <c r="H7">
-        <v>0.3369632223301306</v>
+        <v>0.3197189523386806</v>
       </c>
       <c r="I7">
-        <v>0.4370076667090921</v>
+        <v>0.4151575274800099</v>
       </c>
       <c r="J7">
-        <v>0.4370076667090921</v>
+        <v>0.4151575274800099</v>
       </c>
       <c r="K7">
-        <v>0.4383206338923841</v>
+        <v>0.4210506272308096</v>
       </c>
       <c r="L7">
-        <v>0.4598755300488241</v>
+        <v>0.4453023417233868</v>
       </c>
       <c r="M7">
-        <v>0.696027252283032</v>
+        <v>0.6641847388942878</v>
       </c>
       <c r="N7">
-        <v>0.7320392041547596</v>
+        <v>0.7015484209532692</v>
       </c>
       <c r="O7">
-        <v>0.7320392041547596</v>
+        <v>0.7015484209532692</v>
       </c>
       <c r="P7">
-        <v>0.7320392041547596</v>
+        <v>0.7015484209532692</v>
       </c>
       <c r="Q7">
-        <v>0.8126602533357791</v>
+        <v>0.7793707585369359</v>
       </c>
       <c r="R7">
-        <v>0.8126602533357791</v>
+        <v>0.7793707585369359</v>
       </c>
       <c r="S7">
-        <v>0.8126602533357791</v>
+        <v>0.7793707585369359</v>
       </c>
       <c r="T7">
-        <v>0.8325483221155704</v>
+        <v>0.8021107276968654</v>
       </c>
       <c r="U7">
-        <v>0.8325483221155704</v>
+        <v>0.8021107276968654</v>
       </c>
       <c r="V7">
-        <v>0.8325483221155704</v>
+        <v>0.8047099210682949</v>
       </c>
       <c r="W7">
-        <v>0.9354957775039825</v>
+        <v>0.902781410334772</v>
       </c>
       <c r="X7">
-        <v>0.9391742879943565</v>
+        <v>0.910819962640381</v>
       </c>
       <c r="Y7">
-        <v>0.9391742879943565</v>
+        <v>0.910819962640381</v>
       </c>
       <c r="Z7">
-        <v>0.9391742879943565</v>
+        <v>0.910819962640381</v>
       </c>
       <c r="AA7">
-        <v>0.949955430043196</v>
+        <v>0.9253003158537806</v>
       </c>
       <c r="AB7">
-        <v>0.949955430043196</v>
+        <v>0.927717721566432</v>
       </c>
       <c r="AC7">
-        <v>0.9620586755120093</v>
+        <v>0.9433971693606041</v>
       </c>
       <c r="AD7">
-        <v>0.96970253534057</v>
+        <v>0.9550321338911995</v>
       </c>
       <c r="AE7">
-        <v>0.9931489312351048</v>
+        <v>0.9809993625040919</v>
       </c>
       <c r="AF7">
-        <v>0.9931489312351048</v>
+        <v>0.9851665920809107</v>
       </c>
       <c r="AG7">
-        <v>0.9931489312351048</v>
+        <v>0.9878312723502838</v>
       </c>
       <c r="AH7">
-        <v>0.9999999999999999</v>
+        <v>0.9987472072998609</v>
       </c>
       <c r="AI7">
-        <v>0.9999999999999999</v>
+        <v>0.9999999999999996</v>
       </c>
       <c r="AJ7">
-        <v>0.9999999999999999</v>
+        <v>0.9999999999999996</v>
       </c>
       <c r="AK7">
-        <v>0.9999999999999999</v>
+        <v>0.9999999999999996</v>
       </c>
       <c r="AL7">
-        <v>0.9999999999999999</v>
+        <v>0.9999999999999996</v>
       </c>
       <c r="AM7">
-        <v>0.9999999999999999</v>
+        <v>0.9999999999999996</v>
       </c>
       <c r="AN7">
-        <v>0.9999999999999999</v>
+        <v>0.9999999999999996</v>
       </c>
       <c r="AO7">
-        <v>0.9999999999999999</v>
+        <v>0.9999999999999996</v>
       </c>
       <c r="AP7">
-        <v>0.9999999999999999</v>
+        <v>0.9999999999999996</v>
       </c>
       <c r="AQ7">
-        <v>0.9999999999999999</v>
+        <v>0.9999999999999996</v>
       </c>
       <c r="AR7">
-        <v>0.9999999999999999</v>
+        <v>0.9999999999999996</v>
       </c>
     </row>
     <row r="8" spans="1:44">
@@ -3031,91 +3031,91 @@
         <v>0</v>
       </c>
       <c r="E8">
-        <v>0.1695358351269083</v>
+        <v>0.1888033250935869</v>
       </c>
       <c r="F8">
-        <v>0.1695358351269083</v>
+        <v>0.1888033250935869</v>
       </c>
       <c r="G8">
-        <v>0.3815717962832937</v>
+        <v>0.4270801589280716</v>
       </c>
       <c r="H8">
-        <v>0.4004285662544024</v>
+        <v>0.4404811324642677</v>
       </c>
       <c r="I8">
-        <v>0.4704371629871094</v>
+        <v>0.5134268788006108</v>
       </c>
       <c r="J8">
-        <v>0.4738602069385172</v>
+        <v>0.5134268788006108</v>
       </c>
       <c r="K8">
-        <v>0.5022044558206842</v>
+        <v>0.5378720283119506</v>
       </c>
       <c r="L8">
-        <v>0.5474105329255066</v>
+        <v>0.5819456797572016</v>
       </c>
       <c r="M8">
-        <v>0.5992226786881285</v>
+        <v>0.633709317704091</v>
       </c>
       <c r="N8">
-        <v>0.643508818080103</v>
+        <v>0.6767120888783964</v>
       </c>
       <c r="O8">
-        <v>0.7185983025596951</v>
+        <v>0.7555723904841214</v>
       </c>
       <c r="P8">
-        <v>0.7185983025596951</v>
+        <v>0.7555723904841214</v>
       </c>
       <c r="Q8">
-        <v>0.7302696978224231</v>
+        <v>0.7606090194488417</v>
       </c>
       <c r="R8">
-        <v>0.7351062133572801</v>
+        <v>0.7606090194488417</v>
       </c>
       <c r="S8">
-        <v>0.7424509018387004</v>
+        <v>0.7606090194488417</v>
       </c>
       <c r="T8">
-        <v>0.7424509018387004</v>
+        <v>0.7606090194488417</v>
       </c>
       <c r="U8">
-        <v>0.7605614852843501</v>
+        <v>0.7731413728410875</v>
       </c>
       <c r="V8">
-        <v>0.7605614852843501</v>
+        <v>0.7731413728410875</v>
       </c>
       <c r="W8">
-        <v>0.7929316060479865</v>
+        <v>0.8022729556956948</v>
       </c>
       <c r="X8">
-        <v>0.8462317075132326</v>
+        <v>0.8557686917876295</v>
       </c>
       <c r="Y8">
-        <v>0.8462317075132326</v>
+        <v>0.8557686917876295</v>
       </c>
       <c r="Z8">
-        <v>0.8462317075132326</v>
+        <v>0.8557686917876295</v>
       </c>
       <c r="AA8">
-        <v>0.8462317075132326</v>
+        <v>0.8557686917876295</v>
       </c>
       <c r="AB8">
-        <v>0.882931000426058</v>
+        <v>0.8899397734901979</v>
       </c>
       <c r="AC8">
-        <v>0.9558610904156671</v>
+        <v>0.966286369087119</v>
       </c>
       <c r="AD8">
-        <v>0.9560610061199716</v>
+        <v>0.966286369087119</v>
       </c>
       <c r="AE8">
-        <v>0.9897955510349212</v>
+        <v>0.9970062495888783</v>
       </c>
       <c r="AF8">
-        <v>0.9997120152608074</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="AG8">
-        <v>0.9997120152608074</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="AH8">
         <v>0.9999999999999998</v>
@@ -3168,121 +3168,121 @@
         <v>0</v>
       </c>
       <c r="F9">
-        <v>0.2687265851690533</v>
+        <v>0.2572275844632843</v>
       </c>
       <c r="G9">
-        <v>0.422052316229072</v>
+        <v>0.4050683868520323</v>
       </c>
       <c r="H9">
-        <v>0.4716736251125751</v>
+        <v>0.4546092839552432</v>
       </c>
       <c r="I9">
-        <v>0.5436684860127194</v>
+        <v>0.5253577438410075</v>
       </c>
       <c r="J9">
-        <v>0.5644495356768338</v>
+        <v>0.5475613809684499</v>
       </c>
       <c r="K9">
-        <v>0.5644495356768338</v>
+        <v>0.5475613809684499</v>
       </c>
       <c r="L9">
-        <v>0.5800296018038419</v>
+        <v>0.5648350818563463</v>
       </c>
       <c r="M9">
-        <v>0.661671492201767</v>
+        <v>0.6447278199321431</v>
       </c>
       <c r="N9">
-        <v>0.6930211534578198</v>
+        <v>0.6769492894401457</v>
       </c>
       <c r="O9">
-        <v>0.7773372546433405</v>
+        <v>0.7593768728158542</v>
       </c>
       <c r="P9">
-        <v>0.7968928385533063</v>
+        <v>0.78041890887523</v>
       </c>
       <c r="Q9">
-        <v>0.80173006212716</v>
+        <v>0.7875096264022524</v>
       </c>
       <c r="R9">
-        <v>0.80173006212716</v>
+        <v>0.7875096264022524</v>
       </c>
       <c r="S9">
-        <v>0.80173006212716</v>
+        <v>0.7875096264022524</v>
       </c>
       <c r="T9">
-        <v>0.80173006212716</v>
+        <v>0.7875096264022524</v>
       </c>
       <c r="U9">
-        <v>0.8085595410045944</v>
+        <v>0.7964887735982936</v>
       </c>
       <c r="V9">
-        <v>0.8085595410045944</v>
+        <v>0.7964887735982936</v>
       </c>
       <c r="W9">
-        <v>0.8085595410045944</v>
+        <v>0.7984917161014163</v>
       </c>
       <c r="X9">
-        <v>0.8532978391203205</v>
+        <v>0.8434040787033336</v>
       </c>
       <c r="Y9">
-        <v>0.8621897763685937</v>
+        <v>0.8543382000292508</v>
       </c>
       <c r="Z9">
-        <v>0.8621897763685937</v>
+        <v>0.8543382000292508</v>
       </c>
       <c r="AA9">
-        <v>0.8621897763685937</v>
+        <v>0.8543382000292508</v>
       </c>
       <c r="AB9">
-        <v>0.8713875303650712</v>
+        <v>0.8655622005787563</v>
       </c>
       <c r="AC9">
-        <v>0.9339339376637629</v>
+        <v>0.9273546094627928</v>
       </c>
       <c r="AD9">
-        <v>0.964425289198155</v>
+        <v>0.95876249973691</v>
       </c>
       <c r="AE9">
-        <v>0.9654005289202042</v>
+        <v>0.9621924992455582</v>
       </c>
       <c r="AF9">
-        <v>0.9940608233698162</v>
+        <v>0.9918647572850159</v>
       </c>
       <c r="AG9">
-        <v>0.9940608233698162</v>
+        <v>0.9918647572850159</v>
       </c>
       <c r="AH9">
-        <v>0.9940608233698162</v>
+        <v>0.9918647572850159</v>
       </c>
       <c r="AI9">
-        <v>0.9940608233698162</v>
+        <v>0.9918647572850159</v>
       </c>
       <c r="AJ9">
-        <v>0.9940608233698162</v>
+        <v>0.9918647572850159</v>
       </c>
       <c r="AK9">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AL9">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AM9">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AN9">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AO9">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AP9">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AQ9">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AR9">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
     </row>
     <row r="10" spans="1:44">
@@ -3302,97 +3302,97 @@
         <v>0</v>
       </c>
       <c r="F10">
-        <v>0.3112403014136277</v>
+        <v>0.3163155235395083</v>
       </c>
       <c r="G10">
-        <v>0.425192387656434</v>
+        <v>0.4315688939175218</v>
       </c>
       <c r="H10">
-        <v>0.5034053695639212</v>
+        <v>0.5103995045098035</v>
       </c>
       <c r="I10">
-        <v>0.5204368595789551</v>
+        <v>0.5268782788158773</v>
       </c>
       <c r="J10">
-        <v>0.5415061612112524</v>
+        <v>0.547472104277564</v>
       </c>
       <c r="K10">
-        <v>0.5415061612112524</v>
+        <v>0.547472104277564</v>
       </c>
       <c r="L10">
-        <v>0.5994060534539821</v>
+        <v>0.6056010549059073</v>
       </c>
       <c r="M10">
-        <v>0.6594885316618833</v>
+        <v>0.6659543423160369</v>
       </c>
       <c r="N10">
-        <v>0.7082280747790618</v>
+        <v>0.7147477149561076</v>
       </c>
       <c r="O10">
-        <v>0.8121017518252931</v>
+        <v>0.8197298856491756</v>
       </c>
       <c r="P10">
-        <v>0.8186315401018042</v>
+        <v>0.8255060705401697</v>
       </c>
       <c r="Q10">
-        <v>0.8194935625172505</v>
+        <v>0.8255060705401697</v>
       </c>
       <c r="R10">
-        <v>0.8195955114941363</v>
+        <v>0.8255060705401697</v>
       </c>
       <c r="S10">
-        <v>0.8232431268062396</v>
+        <v>0.8283449492088639</v>
       </c>
       <c r="T10">
-        <v>0.8232431268062396</v>
+        <v>0.8283449492088639</v>
       </c>
       <c r="U10">
-        <v>0.8247248075542059</v>
+        <v>0.828976461022446</v>
       </c>
       <c r="V10">
-        <v>0.8252903946957673</v>
+        <v>0.828976461022446</v>
       </c>
       <c r="W10">
-        <v>0.8268112436590098</v>
+        <v>0.8296478903024219</v>
       </c>
       <c r="X10">
-        <v>0.8792964870469319</v>
+        <v>0.8822586149362809</v>
       </c>
       <c r="Y10">
-        <v>0.9023018529733619</v>
+        <v>0.9048255397810218</v>
       </c>
       <c r="Z10">
-        <v>0.9023018529733619</v>
+        <v>0.9048255397810218</v>
       </c>
       <c r="AA10">
-        <v>0.9023018529733619</v>
+        <v>0.9048255397810218</v>
       </c>
       <c r="AB10">
-        <v>0.9111363770598369</v>
+        <v>0.9129505479102337</v>
       </c>
       <c r="AC10">
-        <v>0.9610842588460039</v>
+        <v>0.9629753736014901</v>
       </c>
       <c r="AD10">
-        <v>0.9717650226885711</v>
+        <v>0.9729819383167904</v>
       </c>
       <c r="AE10">
-        <v>0.9717650226885711</v>
+        <v>0.9729819383167904</v>
       </c>
       <c r="AF10">
-        <v>0.9958457283444491</v>
+        <v>0.9966447731285594</v>
       </c>
       <c r="AG10">
-        <v>0.9958457283444491</v>
+        <v>0.9966447731285594</v>
       </c>
       <c r="AH10">
-        <v>0.9958457283444491</v>
+        <v>0.9966447731285594</v>
       </c>
       <c r="AI10">
-        <v>0.9958457283444491</v>
+        <v>0.9966447731285594</v>
       </c>
       <c r="AJ10">
-        <v>0.9958457283444491</v>
+        <v>0.9966447731285594</v>
       </c>
       <c r="AK10">
         <v>1</v>
@@ -3433,97 +3433,97 @@
         <v>0</v>
       </c>
       <c r="E11">
-        <v>0.05790839436270686</v>
+        <v>0.0575756089541354</v>
       </c>
       <c r="F11">
-        <v>0.1167064355032515</v>
+        <v>0.1159866185333319</v>
       </c>
       <c r="G11">
-        <v>0.4040412228846632</v>
+        <v>0.3889993615365097</v>
       </c>
       <c r="H11">
-        <v>0.4433325279245227</v>
+        <v>0.4290930569440975</v>
       </c>
       <c r="I11">
-        <v>0.5160049208051405</v>
+        <v>0.50053243059397</v>
       </c>
       <c r="J11">
-        <v>0.5202154126957022</v>
+        <v>0.5076843630877393</v>
       </c>
       <c r="K11">
-        <v>0.5202154126957022</v>
+        <v>0.5076843630877393</v>
       </c>
       <c r="L11">
-        <v>0.6181979881979549</v>
+        <v>0.6028906326667056</v>
       </c>
       <c r="M11">
-        <v>0.6666049614191327</v>
+        <v>0.6515441689979361</v>
       </c>
       <c r="N11">
-        <v>0.6993085689564325</v>
+        <v>0.6854518513175797</v>
       </c>
       <c r="O11">
-        <v>0.846727840222305</v>
+        <v>0.827080417442438</v>
       </c>
       <c r="P11">
-        <v>0.846727840222305</v>
+        <v>0.827080417442438</v>
       </c>
       <c r="Q11">
-        <v>0.8547821605300399</v>
+        <v>0.837841801172729</v>
       </c>
       <c r="R11">
-        <v>0.8547821605300399</v>
+        <v>0.837841801172729</v>
       </c>
       <c r="S11">
-        <v>0.8547821605300399</v>
+        <v>0.837841801172729</v>
       </c>
       <c r="T11">
-        <v>0.8547821605300399</v>
+        <v>0.837841801172729</v>
       </c>
       <c r="U11">
-        <v>0.8547821605300399</v>
+        <v>0.8384160491423571</v>
       </c>
       <c r="V11">
-        <v>0.8547821605300399</v>
+        <v>0.8384160491423571</v>
       </c>
       <c r="W11">
-        <v>0.8616434307977633</v>
+        <v>0.8480571289790321</v>
       </c>
       <c r="X11">
-        <v>0.8927984303868931</v>
+        <v>0.8805106296165705</v>
       </c>
       <c r="Y11">
-        <v>0.8937766311950806</v>
+        <v>0.8846273597605291</v>
       </c>
       <c r="Z11">
-        <v>0.8937766311950806</v>
+        <v>0.8846273597605291</v>
       </c>
       <c r="AA11">
-        <v>0.8937766311950806</v>
+        <v>0.8862886783733942</v>
       </c>
       <c r="AB11">
-        <v>0.9133283219855718</v>
+        <v>0.9078463811902305</v>
       </c>
       <c r="AC11">
-        <v>0.9829113266836754</v>
+        <v>0.9763847418953912</v>
       </c>
       <c r="AD11">
-        <v>0.9829113266836754</v>
+        <v>0.9766942573764593</v>
       </c>
       <c r="AE11">
-        <v>0.986817209658574</v>
+        <v>0.9835601544628251</v>
       </c>
       <c r="AF11">
-        <v>1</v>
+        <v>0.9991373001095087</v>
       </c>
       <c r="AG11">
-        <v>1</v>
+        <v>0.9991373001095087</v>
       </c>
       <c r="AH11">
-        <v>1</v>
+        <v>0.9991373001095087</v>
       </c>
       <c r="AI11">
-        <v>1</v>
+        <v>0.9991373001095087</v>
       </c>
       <c r="AJ11">
         <v>1</v>
@@ -3624,7 +3624,7 @@
         <v>0</v>
       </c>
       <c r="F2">
-        <v>0.5577989249625009</v>
+        <v>0.500806660506099</v>
       </c>
       <c r="G2">
         <v>9</v>
@@ -3665,7 +3665,7 @@
         <v>0</v>
       </c>
       <c r="F3">
-        <v>0.6468318480619805</v>
+        <v>0.6446500320746111</v>
       </c>
       <c r="G3">
         <v>6</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="F4">
-        <v>0.5335749463842865</v>
+        <v>0.5305150646950272</v>
       </c>
       <c r="G4">
         <v>9</v>
@@ -3747,7 +3747,7 @@
         <v>0</v>
       </c>
       <c r="F5">
-        <v>0.5557556360786139</v>
+        <v>0.5090463582503281</v>
       </c>
       <c r="G5">
         <v>9</v>
@@ -3788,7 +3788,7 @@
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.5777536444510127</v>
+        <v>0.5680755100177511</v>
       </c>
       <c r="G6">
         <v>6</v>
@@ -3829,7 +3829,7 @@
         <v>0</v>
       </c>
       <c r="F7">
-        <v>0.696027252283032</v>
+        <v>0.6641847388942878</v>
       </c>
       <c r="G7">
         <v>10</v>
@@ -3864,16 +3864,16 @@
         <v>2</v>
       </c>
       <c r="D8">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>0.5022044558206842</v>
+        <v>0.5134268788006108</v>
       </c>
       <c r="G8">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="H8">
         <v>7</v>
@@ -3911,7 +3911,7 @@
         <v>0</v>
       </c>
       <c r="F9">
-        <v>0.5436684860127194</v>
+        <v>0.5253577438410075</v>
       </c>
       <c r="G9">
         <v>5</v>
@@ -3952,7 +3952,7 @@
         <v>0</v>
       </c>
       <c r="F10">
-        <v>0.5034053695639212</v>
+        <v>0.5103995045098035</v>
       </c>
       <c r="G10">
         <v>4</v>
@@ -3993,7 +3993,7 @@
         <v>0</v>
       </c>
       <c r="F11">
-        <v>0.5160049208051405</v>
+        <v>0.50053243059397</v>
       </c>
       <c r="G11">
         <v>6</v>
@@ -4082,16 +4082,16 @@
         <v>11</v>
       </c>
       <c r="D2">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>0.7638474725163618</v>
+        <v>0.7193853202433411</v>
       </c>
       <c r="G2">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="H2">
         <v>7</v>
@@ -4129,7 +4129,7 @@
         <v>0</v>
       </c>
       <c r="F3">
-        <v>0.7414632620366888</v>
+        <v>0.7394484151744725</v>
       </c>
       <c r="G3">
         <v>9</v>
@@ -4164,16 +4164,16 @@
         <v>2</v>
       </c>
       <c r="D4">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>0.7022874945632447</v>
+        <v>0.7470876353755533</v>
       </c>
       <c r="G4">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="H4">
         <v>7</v>
@@ -4205,16 +4205,16 @@
         <v>10</v>
       </c>
       <c r="D5">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>0.7715264288289609</v>
+        <v>0.7523082791121576</v>
       </c>
       <c r="G5">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="H5">
         <v>7</v>
@@ -4252,7 +4252,7 @@
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.732104944002899</v>
+        <v>0.7204935139717582</v>
       </c>
       <c r="G6">
         <v>9</v>
@@ -4293,7 +4293,7 @@
         <v>0</v>
       </c>
       <c r="F7">
-        <v>0.7320392041547596</v>
+        <v>0.7015484209532692</v>
       </c>
       <c r="G7">
         <v>11</v>
@@ -4334,7 +4334,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>0.7185983025596951</v>
+        <v>0.7555723904841214</v>
       </c>
       <c r="G8">
         <v>12</v>
@@ -4375,7 +4375,7 @@
         <v>0</v>
       </c>
       <c r="F9">
-        <v>0.7773372546433405</v>
+        <v>0.7593768728158542</v>
       </c>
       <c r="G9">
         <v>11</v>
@@ -4416,7 +4416,7 @@
         <v>0</v>
       </c>
       <c r="F10">
-        <v>0.7082280747790618</v>
+        <v>0.7147477149561076</v>
       </c>
       <c r="G10">
         <v>10</v>
@@ -4457,7 +4457,7 @@
         <v>0</v>
       </c>
       <c r="F11">
-        <v>0.846727840222305</v>
+        <v>0.827080417442438</v>
       </c>
       <c r="G11">
         <v>12</v>
@@ -4546,16 +4546,16 @@
         <v>11</v>
       </c>
       <c r="D2">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>0.8216999737520132</v>
+        <v>0.805661923358128</v>
       </c>
       <c r="G2">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="H2">
         <v>7</v>
@@ -4593,7 +4593,7 @@
         <v>0</v>
       </c>
       <c r="F3">
-        <v>0.8906728139232208</v>
+        <v>0.8881812304092271</v>
       </c>
       <c r="G3">
         <v>10</v>
@@ -4634,7 +4634,7 @@
         <v>0</v>
       </c>
       <c r="F4">
-        <v>0.8117118745149497</v>
+        <v>0.809819309653008</v>
       </c>
       <c r="G4">
         <v>20</v>
@@ -4669,16 +4669,16 @@
         <v>10</v>
       </c>
       <c r="D5">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>0.8347416828629646</v>
+        <v>0.8066572843298049</v>
       </c>
       <c r="G5">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="H5">
         <v>7</v>
@@ -4716,7 +4716,7 @@
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.823182156580918</v>
+        <v>0.8101340367054051</v>
       </c>
       <c r="G6">
         <v>10</v>
@@ -4751,16 +4751,16 @@
         <v>2</v>
       </c>
       <c r="D7">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>0.8126602533357791</v>
+        <v>0.8021107276968654</v>
       </c>
       <c r="G7">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="H7">
         <v>7</v>
@@ -4792,16 +4792,16 @@
         <v>2</v>
       </c>
       <c r="D8">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>0.8462317075132326</v>
+        <v>0.8022729556956948</v>
       </c>
       <c r="G8">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H8">
         <v>7</v>
@@ -4833,16 +4833,16 @@
         <v>3</v>
       </c>
       <c r="D9">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>0.80173006212716</v>
+        <v>0.8434040787033336</v>
       </c>
       <c r="G9">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="H9">
         <v>7</v>
@@ -4880,7 +4880,7 @@
         <v>0</v>
       </c>
       <c r="F10">
-        <v>0.8121017518252931</v>
+        <v>0.8197298856491756</v>
       </c>
       <c r="G10">
         <v>11</v>
@@ -4921,7 +4921,7 @@
         <v>0</v>
       </c>
       <c r="F11">
-        <v>0.846727840222305</v>
+        <v>0.827080417442438</v>
       </c>
       <c r="G11">
         <v>12</v>
@@ -5010,16 +5010,16 @@
         <v>11</v>
       </c>
       <c r="D2">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>0.9099892365704194</v>
+        <v>0.9021645242498544</v>
       </c>
       <c r="G2">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="H2">
         <v>7</v>
@@ -5057,7 +5057,7 @@
         <v>0</v>
       </c>
       <c r="F3">
-        <v>0.9146017828343822</v>
+        <v>0.9123222662013355</v>
       </c>
       <c r="G3">
         <v>11</v>
@@ -5098,7 +5098,7 @@
         <v>0</v>
       </c>
       <c r="F4">
-        <v>0.9376483026903331</v>
+        <v>0.9354422057783257</v>
       </c>
       <c r="G4">
         <v>25</v>
@@ -5133,16 +5133,16 @@
         <v>10</v>
       </c>
       <c r="D5">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>0.9249282609316706</v>
+        <v>0.914769657681745</v>
       </c>
       <c r="G5">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="H5">
         <v>7</v>
@@ -5180,7 +5180,7 @@
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.9107486625985826</v>
+        <v>0.90295387196446</v>
       </c>
       <c r="G6">
         <v>20</v>
@@ -5221,7 +5221,7 @@
         <v>0</v>
       </c>
       <c r="F7">
-        <v>0.9354957775039825</v>
+        <v>0.902781410334772</v>
       </c>
       <c r="G7">
         <v>20</v>
@@ -5262,7 +5262,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>0.9558610904156671</v>
+        <v>0.966286369087119</v>
       </c>
       <c r="G8">
         <v>26</v>
@@ -5303,7 +5303,7 @@
         <v>0</v>
       </c>
       <c r="F9">
-        <v>0.9339339376637629</v>
+        <v>0.9273546094627928</v>
       </c>
       <c r="G9">
         <v>25</v>
@@ -5344,7 +5344,7 @@
         <v>0</v>
       </c>
       <c r="F10">
-        <v>0.9023018529733619</v>
+        <v>0.9048255397810218</v>
       </c>
       <c r="G10">
         <v>21</v>
@@ -5385,7 +5385,7 @@
         <v>0</v>
       </c>
       <c r="F11">
-        <v>0.9133283219855718</v>
+        <v>0.9078463811902305</v>
       </c>
       <c r="G11">
         <v>25</v>

--- a/Person_B_and_trucks/on_trucks/Processed_Standalone/7_225-80R17.xlsx
+++ b/Person_B_and_trucks/on_trucks/Processed_Standalone/7_225-80R17.xlsx
@@ -183,40 +183,43 @@
     <t>signal segment 10</t>
   </si>
   <si>
+    <t>First_Noticeable_Increase_Cumulative_Value</t>
+  </si>
+  <si>
+    <t>First_Noticeable_Increase_Index</t>
+  </si>
+  <si>
     <t>Intensity_Threshold</t>
   </si>
   <si>
-    <t>First_Noticeable_Increase_Index</t>
+    <t>Point_Exceeds_Cumulative_Value</t>
   </si>
   <si>
     <t>Point_Exceeds_Index</t>
   </si>
   <si>
-    <t>First_Noticeable_Increase_Cumulative_Value</t>
-  </si>
-  <si>
-    <t>Point_Exceeds_Cumulative_Value</t>
+    <t>Pressure</t>
   </si>
   <si>
     <t>Pulse_Width</t>
   </si>
   <si>
+    <t>Rim</t>
+  </si>
+  <si>
+    <t>TireSize</t>
+  </si>
+  <si>
     <t>Tire_Number</t>
   </si>
   <si>
-    <t>Pressure</t>
-  </si>
-  <si>
-    <t>TireSize</t>
-  </si>
-  <si>
     <t>Tire_Type</t>
   </si>
   <si>
     <t>Wear</t>
   </si>
   <si>
-    <t>Rim</t>
+    <t>Ir</t>
   </si>
   <si>
     <t>225-80R17.5</t>
@@ -226,9 +229,6 @@
   </si>
   <si>
     <t>0%</t>
-  </si>
-  <si>
-    <t>Ir</t>
   </si>
 </sst>
 </file>
@@ -764,100 +764,100 @@
         <v>0</v>
       </c>
       <c r="M2">
-        <v>0.01977693552662991</v>
+        <v>0</v>
       </c>
       <c r="N2">
-        <v>0.05865020733038811</v>
+        <v>0.06258217125510912</v>
       </c>
       <c r="O2">
-        <v>0.1429966338535494</v>
+        <v>0.246824555561703</v>
       </c>
       <c r="P2">
-        <v>0.007050230914479279</v>
+        <v>0</v>
       </c>
       <c r="Q2">
-        <v>0.05024226833750921</v>
+        <v>0.04421626304764036</v>
       </c>
       <c r="R2">
-        <v>0.08709797872776058</v>
+        <v>0.1247221509378475</v>
       </c>
       <c r="S2">
-        <v>0.03274916865459328</v>
+        <v>0.006005155270497802</v>
       </c>
       <c r="T2">
-        <v>0.004374197891823924</v>
+        <v>0</v>
       </c>
       <c r="U2">
-        <v>0.09786903926936527</v>
+        <v>0.1482499511956448</v>
       </c>
       <c r="V2">
-        <v>0.1649180104953571</v>
+        <v>0.294708584159648</v>
       </c>
       <c r="W2">
-        <v>0.0001641310668925238</v>
+        <v>0</v>
       </c>
       <c r="X2">
-        <v>0.05349651817499251</v>
+        <v>0.05132469400200483</v>
       </c>
       <c r="Y2">
-        <v>0.00114675557078174</v>
+        <v>0</v>
       </c>
       <c r="Z2">
-        <v>0.03228045286346911</v>
+        <v>0.004981314445478903</v>
       </c>
       <c r="AA2">
-        <v>0.01084637583249803</v>
+        <v>0</v>
       </c>
       <c r="AB2">
-        <v>0.01935070796044044</v>
+        <v>0</v>
       </c>
       <c r="AC2">
-        <v>0.02265231088759751</v>
+        <v>0</v>
       </c>
       <c r="AD2">
-        <v>0.00398630669768841</v>
+        <v>0</v>
       </c>
       <c r="AE2">
-        <v>0.0312506103932385</v>
+        <v>0.002731774779167406</v>
       </c>
       <c r="AF2">
-        <v>0.03625053929990321</v>
+        <v>0.01365338534525829</v>
       </c>
       <c r="AG2">
-        <v>0.00826846386087781</v>
+        <v>0</v>
       </c>
       <c r="AH2">
-        <v>0.01674668064001844</v>
+        <v>0</v>
       </c>
       <c r="AI2">
-        <v>0.003231202866946867</v>
+        <v>0</v>
       </c>
       <c r="AJ2">
-        <v>0.0153179310941454</v>
+        <v>0</v>
       </c>
       <c r="AK2">
-        <v>0.02175812119898861</v>
+        <v>0</v>
       </c>
       <c r="AL2">
-        <v>0.02048875802052283</v>
+        <v>0</v>
       </c>
       <c r="AM2">
-        <v>0.01367893134216448</v>
+        <v>0</v>
       </c>
       <c r="AN2">
-        <v>0.005123815778986358</v>
+        <v>0</v>
       </c>
       <c r="AO2">
-        <v>0.003703053179564085</v>
+        <v>0</v>
       </c>
       <c r="AP2">
-        <v>0.01343381000163426</v>
+        <v>0</v>
       </c>
       <c r="AQ2">
-        <v>0.0008039955696647246</v>
+        <v>0</v>
       </c>
       <c r="AR2">
-        <v>0.0002958566975280415</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:44">
@@ -874,34 +874,34 @@
         <v>0</v>
       </c>
       <c r="E3">
-        <v>0.2730175572682059</v>
+        <v>0.3461149261124868</v>
       </c>
       <c r="F3">
-        <v>0.07436901087204138</v>
+        <v>0.0685460336588202</v>
       </c>
       <c r="G3">
-        <v>0.1504844663289183</v>
+        <v>0.1749011168097314</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>0.1467789976054456</v>
+        <v>0.1697235161262367</v>
       </c>
       <c r="J3">
         <v>0</v>
       </c>
       <c r="K3">
-        <v>0.02117720473232449</v>
+        <v>0</v>
       </c>
       <c r="L3">
-        <v>0.07362117836753684</v>
+        <v>0.06750109754535774</v>
       </c>
       <c r="M3">
-        <v>0.1487328152347547</v>
+        <v>0.172453558732953</v>
       </c>
       <c r="N3">
-        <v>0.02414103579210835</v>
+        <v>0</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -910,7 +910,7 @@
         <v>0</v>
       </c>
       <c r="Q3">
-        <v>0.009586728642288231</v>
+        <v>0</v>
       </c>
       <c r="R3">
         <v>0</v>
@@ -919,7 +919,7 @@
         <v>0</v>
       </c>
       <c r="T3">
-        <v>0.001756667568519772</v>
+        <v>0</v>
       </c>
       <c r="U3">
         <v>0</v>
@@ -928,10 +928,10 @@
         <v>0</v>
       </c>
       <c r="W3">
-        <v>0.01575191764290126</v>
+        <v>0</v>
       </c>
       <c r="X3">
-        <v>0.01150737806139681</v>
+        <v>0</v>
       </c>
       <c r="Y3">
         <v>0</v>
@@ -943,16 +943,16 @@
         <v>0</v>
       </c>
       <c r="AB3">
-        <v>0.02585620241617825</v>
+        <v>0.0007597510144142041</v>
       </c>
       <c r="AC3">
-        <v>0.0103282503397541</v>
+        <v>0</v>
       </c>
       <c r="AD3">
         <v>0</v>
       </c>
       <c r="AE3">
-        <v>0.007251727793475333</v>
+        <v>0</v>
       </c>
       <c r="AF3">
         <v>0</v>
@@ -961,7 +961,7 @@
         <v>0</v>
       </c>
       <c r="AH3">
-        <v>0.005638861334150487</v>
+        <v>0</v>
       </c>
       <c r="AI3">
         <v>0</v>
@@ -1008,34 +1008,34 @@
         <v>0</v>
       </c>
       <c r="E4">
-        <v>0.1827515623332572</v>
+        <v>0.2494793990202426</v>
       </c>
       <c r="F4">
-        <v>0.02210213066236698</v>
+        <v>0</v>
       </c>
       <c r="G4">
-        <v>0.1540816794733505</v>
+        <v>0.2038145843004594</v>
       </c>
       <c r="H4">
-        <v>0.02342784739627361</v>
+        <v>0</v>
       </c>
       <c r="I4">
-        <v>0.09829815892205611</v>
+        <v>0.1149637109697421</v>
       </c>
       <c r="J4">
         <v>0</v>
       </c>
       <c r="K4">
-        <v>0.01577980280923694</v>
+        <v>0</v>
       </c>
       <c r="L4">
-        <v>0.03407388309848573</v>
+        <v>0.01266857183972012</v>
       </c>
       <c r="M4">
-        <v>0.166319456434434</v>
+        <v>0.2233066701328509</v>
       </c>
       <c r="N4">
-        <v>0.0502531142460921</v>
+        <v>0.03843852689235104</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -1044,10 +1044,10 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>0.006301540950314353</v>
+        <v>0</v>
       </c>
       <c r="R4">
-        <v>0.007655276962598054</v>
+        <v>0</v>
       </c>
       <c r="S4">
         <v>0</v>
@@ -1056,16 +1056,16 @@
         <v>0</v>
       </c>
       <c r="U4">
-        <v>0.02970586473669994</v>
+        <v>0.005711279751774442</v>
       </c>
       <c r="V4">
         <v>0</v>
       </c>
       <c r="W4">
-        <v>0.01906899162784233</v>
+        <v>0</v>
       </c>
       <c r="X4">
-        <v>0.049460559351345</v>
+        <v>0.03717616134308345</v>
       </c>
       <c r="Y4">
         <v>0</v>
@@ -1077,16 +1077,16 @@
         <v>0</v>
       </c>
       <c r="AB4">
-        <v>0.07616233677397274</v>
+        <v>0.07970621717384357</v>
       </c>
       <c r="AC4">
-        <v>0.04792784118766415</v>
+        <v>0.03473487857593231</v>
       </c>
       <c r="AD4">
         <v>0</v>
       </c>
       <c r="AE4">
-        <v>0.01516390490222139</v>
+        <v>0</v>
       </c>
       <c r="AF4">
         <v>0</v>
@@ -1101,7 +1101,7 @@
         <v>0</v>
       </c>
       <c r="AJ4">
-        <v>0.001466048131788672</v>
+        <v>0</v>
       </c>
       <c r="AK4">
         <v>0</v>
@@ -1166,100 +1166,100 @@
         <v>0</v>
       </c>
       <c r="M5">
-        <v>0.1395680392387812</v>
+        <v>0.2009826295297808</v>
       </c>
       <c r="N5">
-        <v>0.004023299947250147</v>
+        <v>0</v>
       </c>
       <c r="O5">
-        <v>0.1753626243830134</v>
+        <v>0.2666412823193717</v>
       </c>
       <c r="P5">
-        <v>0.0002729631966753183</v>
+        <v>0</v>
       </c>
       <c r="Q5">
-        <v>0.07133738791341601</v>
+        <v>0.07582591582774539</v>
       </c>
       <c r="R5">
-        <v>0.03234182192100137</v>
+        <v>0.004295646165097653</v>
       </c>
       <c r="S5">
-        <v>0.01992668092784302</v>
+        <v>0</v>
       </c>
       <c r="T5">
-        <v>0.06621354072234759</v>
+        <v>0.06642715055892952</v>
       </c>
       <c r="U5">
-        <v>0.1826731577101383</v>
+        <v>0.280051125386369</v>
       </c>
       <c r="V5">
-        <v>0.06058876315169125</v>
+        <v>0.05610951966469596</v>
       </c>
       <c r="W5">
-        <v>3.445826967059206E-06</v>
+        <v>0</v>
       </c>
       <c r="X5">
-        <v>1.940766614641431E-05</v>
+        <v>0</v>
       </c>
       <c r="Y5">
-        <v>0.04412104759659966</v>
+        <v>0.02590249216283559</v>
       </c>
       <c r="Z5">
-        <v>0.002548067289397111</v>
+        <v>0</v>
       </c>
       <c r="AA5">
-        <v>0.007657036838537019</v>
+        <v>0</v>
       </c>
       <c r="AB5">
-        <v>0.005551173465534215</v>
+        <v>0</v>
       </c>
       <c r="AC5">
-        <v>0.02491854857012161</v>
+        <v>0</v>
       </c>
       <c r="AD5">
-        <v>0.00468729786131945</v>
+        <v>0</v>
       </c>
       <c r="AE5">
-        <v>0.03313329164489995</v>
+        <v>0.005747453347260349</v>
       </c>
       <c r="AF5">
-        <v>0.0398220618100648</v>
+        <v>0.01801678503791416</v>
       </c>
       <c r="AG5">
-        <v>0.003094010578579543</v>
+        <v>0</v>
       </c>
       <c r="AH5">
-        <v>3.032577678982555E-05</v>
+        <v>0</v>
       </c>
       <c r="AI5">
-        <v>0.0005423646485641934</v>
+        <v>0</v>
       </c>
       <c r="AJ5">
-        <v>0.008584012512690265</v>
+        <v>0</v>
       </c>
       <c r="AK5">
-        <v>0.02943909043343475</v>
+        <v>0</v>
       </c>
       <c r="AL5">
-        <v>0.001962078568612014</v>
+        <v>0</v>
       </c>
       <c r="AM5">
-        <v>0.01042902527635094</v>
+        <v>0</v>
       </c>
       <c r="AN5">
-        <v>0.001644331176734623</v>
+        <v>0</v>
       </c>
       <c r="AO5">
-        <v>0.001339617919130374</v>
+        <v>0</v>
       </c>
       <c r="AP5">
-        <v>0.02038687959472574</v>
+        <v>0</v>
       </c>
       <c r="AQ5">
-        <v>0.007767585576351786</v>
+        <v>0</v>
       </c>
       <c r="AR5">
-        <v>1.102025629100425E-05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:44">
@@ -1273,34 +1273,34 @@
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.01972116549166761</v>
+        <v>0</v>
       </c>
       <c r="E6">
-        <v>0.115364681611895</v>
+        <v>0.137306690194392</v>
       </c>
       <c r="F6">
-        <v>0.2687504163333094</v>
+        <v>0.3759747259648413</v>
       </c>
       <c r="G6">
-        <v>0.03679647851388071</v>
+        <v>0.01505465194928109</v>
       </c>
       <c r="H6">
-        <v>0.0470357485624729</v>
+        <v>0.03098694496635466</v>
       </c>
       <c r="I6">
-        <v>0.08040701950452554</v>
+        <v>0.08291260611971366</v>
       </c>
       <c r="J6">
         <v>0</v>
       </c>
       <c r="K6">
-        <v>0.01882591318780199</v>
+        <v>0</v>
       </c>
       <c r="L6">
-        <v>0.133592090766205</v>
+        <v>0.1656685189390578</v>
       </c>
       <c r="M6">
-        <v>0.08964052273364685</v>
+        <v>0.09727992706371809</v>
       </c>
       <c r="N6">
         <v>0</v>
@@ -1309,10 +1309,10 @@
         <v>0</v>
       </c>
       <c r="P6">
-        <v>0.005037437622988815</v>
+        <v>0</v>
       </c>
       <c r="Q6">
-        <v>0.009314627083632277</v>
+        <v>0</v>
       </c>
       <c r="R6">
         <v>0</v>
@@ -1321,19 +1321,19 @@
         <v>0</v>
       </c>
       <c r="T6">
-        <v>0.02375893547637149</v>
+        <v>0</v>
       </c>
       <c r="U6">
         <v>0</v>
       </c>
       <c r="V6">
-        <v>0.004914553695215716</v>
+        <v>0</v>
       </c>
       <c r="W6">
-        <v>0.0497942813808465</v>
+        <v>0.03527921902016622</v>
       </c>
       <c r="X6">
-        <v>0.0009556005857234638</v>
+        <v>0</v>
       </c>
       <c r="Y6">
         <v>0</v>
@@ -1342,28 +1342,28 @@
         <v>0</v>
       </c>
       <c r="AA6">
-        <v>0.007163544721411928</v>
+        <v>0</v>
       </c>
       <c r="AB6">
-        <v>0.06538394319449514</v>
+        <v>0.05953671578247523</v>
       </c>
       <c r="AC6">
-        <v>0.003972292202554662</v>
+        <v>0</v>
       </c>
       <c r="AD6">
         <v>0</v>
       </c>
       <c r="AE6">
-        <v>0.006211399421310312</v>
+        <v>0</v>
       </c>
       <c r="AF6">
         <v>0</v>
       </c>
       <c r="AG6">
-        <v>0.009933316986634629</v>
+        <v>0</v>
       </c>
       <c r="AH6">
-        <v>0.003426030923410007</v>
+        <v>0</v>
       </c>
       <c r="AI6">
         <v>0</v>
@@ -1410,34 +1410,34 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>0.2197065473858094</v>
+        <v>0.3081248623852492</v>
       </c>
       <c r="F7">
-        <v>0.04099356884151988</v>
+        <v>0.02052899869974309</v>
       </c>
       <c r="G7">
-        <v>0.0590188361113513</v>
+        <v>0.04953636207567456</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>0.09543857514132928</v>
+        <v>0.1081452352915137</v>
       </c>
       <c r="J7">
         <v>0</v>
       </c>
       <c r="K7">
-        <v>0.005893099750799729</v>
+        <v>0</v>
       </c>
       <c r="L7">
-        <v>0.02425171449257719</v>
+        <v>0</v>
       </c>
       <c r="M7">
-        <v>0.218882397170901</v>
+        <v>0.3067985894150718</v>
       </c>
       <c r="N7">
-        <v>0.03736368205898147</v>
+        <v>0.01468756271222738</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -1446,7 +1446,7 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>0.07782233758366679</v>
+        <v>0.0797961075641762</v>
       </c>
       <c r="R7">
         <v>0</v>
@@ -1455,19 +1455,19 @@
         <v>0</v>
       </c>
       <c r="T7">
-        <v>0.02273996915992949</v>
+        <v>0</v>
       </c>
       <c r="U7">
         <v>0</v>
       </c>
       <c r="V7">
-        <v>0.002599193371429465</v>
+        <v>0</v>
       </c>
       <c r="W7">
-        <v>0.09807148926647717</v>
+        <v>0.1123822818563441</v>
       </c>
       <c r="X7">
-        <v>0.008038552305609058</v>
+        <v>0</v>
       </c>
       <c r="Y7">
         <v>0</v>
@@ -1476,31 +1476,31 @@
         <v>0</v>
       </c>
       <c r="AA7">
-        <v>0.01448035321339963</v>
+        <v>0</v>
       </c>
       <c r="AB7">
-        <v>0.002417405712651382</v>
+        <v>0</v>
       </c>
       <c r="AC7">
-        <v>0.01567944779417219</v>
+        <v>0</v>
       </c>
       <c r="AD7">
-        <v>0.01163496453059526</v>
+        <v>0</v>
       </c>
       <c r="AE7">
-        <v>0.02596722861289244</v>
+        <v>0</v>
       </c>
       <c r="AF7">
-        <v>0.004167229576818829</v>
+        <v>0</v>
       </c>
       <c r="AG7">
-        <v>0.002664680269373004</v>
+        <v>0</v>
       </c>
       <c r="AH7">
-        <v>0.01091593494957708</v>
+        <v>0</v>
       </c>
       <c r="AI7">
-        <v>0.00125279270013869</v>
+        <v>0</v>
       </c>
       <c r="AJ7">
         <v>0</v>
@@ -1544,43 +1544,43 @@
         <v>0</v>
       </c>
       <c r="E8">
-        <v>0.1888033250935869</v>
+        <v>0.2493436412057553</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>0.2382768338344848</v>
+        <v>0.3238483021294489</v>
       </c>
       <c r="H8">
-        <v>0.01340097353619611</v>
+        <v>0</v>
       </c>
       <c r="I8">
-        <v>0.07294574633634304</v>
+        <v>0.07486784920249144</v>
       </c>
       <c r="J8">
         <v>0</v>
       </c>
       <c r="K8">
-        <v>0.02444514951133982</v>
+        <v>0.001828345577059948</v>
       </c>
       <c r="L8">
-        <v>0.04407365144525095</v>
+        <v>0.03138790013958456</v>
       </c>
       <c r="M8">
-        <v>0.05176363794688948</v>
+        <v>0.042968640042488</v>
       </c>
       <c r="N8">
-        <v>0.04300277117430543</v>
+        <v>0.02977520733676515</v>
       </c>
       <c r="O8">
-        <v>0.07886030160572505</v>
+        <v>0.0837748773489603</v>
       </c>
       <c r="P8">
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>0.005036628964720318</v>
+        <v>0</v>
       </c>
       <c r="R8">
         <v>0</v>
@@ -1592,16 +1592,16 @@
         <v>0</v>
       </c>
       <c r="U8">
-        <v>0.01253235339224574</v>
+        <v>0</v>
       </c>
       <c r="V8">
         <v>0</v>
       </c>
       <c r="W8">
-        <v>0.02913158285460725</v>
+        <v>0.008885882753374923</v>
       </c>
       <c r="X8">
-        <v>0.05349573609193475</v>
+        <v>0.04557709430957894</v>
       </c>
       <c r="Y8">
         <v>0</v>
@@ -1613,19 +1613,19 @@
         <v>0</v>
       </c>
       <c r="AB8">
-        <v>0.03417108170256839</v>
+        <v>0.01647511914368385</v>
       </c>
       <c r="AC8">
-        <v>0.07634659559692107</v>
+        <v>0.07998936023860885</v>
       </c>
       <c r="AD8">
         <v>0</v>
       </c>
       <c r="AE8">
-        <v>0.03071988050175938</v>
+        <v>0.01127778057219985</v>
       </c>
       <c r="AF8">
-        <v>0.002993750411121527</v>
+        <v>0</v>
       </c>
       <c r="AG8">
         <v>0</v>
@@ -1681,40 +1681,40 @@
         <v>0</v>
       </c>
       <c r="F9">
-        <v>0.2572275844632843</v>
+        <v>0.393440871599695</v>
       </c>
       <c r="G9">
-        <v>0.147840802388748</v>
+        <v>0.2059760448592229</v>
       </c>
       <c r="H9">
-        <v>0.04954089710321095</v>
+        <v>0.03751168048655735</v>
       </c>
       <c r="I9">
-        <v>0.07074845988576424</v>
+        <v>0.07385676722573953</v>
       </c>
       <c r="J9">
-        <v>0.02220363712744239</v>
+        <v>0</v>
       </c>
       <c r="K9">
         <v>0</v>
       </c>
       <c r="L9">
-        <v>0.01727370088789646</v>
+        <v>0</v>
       </c>
       <c r="M9">
-        <v>0.07989273807579683</v>
+        <v>0.08952804390149967</v>
       </c>
       <c r="N9">
-        <v>0.03222146950800255</v>
+        <v>0.007830000197548233</v>
       </c>
       <c r="O9">
-        <v>0.08242758337570853</v>
+        <v>0.09387220985966863</v>
       </c>
       <c r="P9">
-        <v>0.02104203605937587</v>
+        <v>0</v>
       </c>
       <c r="Q9">
-        <v>0.007090717527022409</v>
+        <v>0</v>
       </c>
       <c r="R9">
         <v>0</v>
@@ -1726,19 +1726,19 @@
         <v>0</v>
       </c>
       <c r="U9">
-        <v>0.008979147196041225</v>
+        <v>0</v>
       </c>
       <c r="V9">
         <v>0</v>
       </c>
       <c r="W9">
-        <v>0.002002942503122704</v>
+        <v>0</v>
       </c>
       <c r="X9">
-        <v>0.04491236260191722</v>
+        <v>0.02957939285644784</v>
       </c>
       <c r="Y9">
-        <v>0.01093412132591723</v>
+        <v>0</v>
       </c>
       <c r="Z9">
         <v>0</v>
@@ -1747,19 +1747,19 @@
         <v>0</v>
       </c>
       <c r="AB9">
-        <v>0.01122400054950555</v>
+        <v>0</v>
       </c>
       <c r="AC9">
-        <v>0.06179240888403645</v>
+        <v>0.05850807045016659</v>
       </c>
       <c r="AD9">
-        <v>0.0314078902741172</v>
+        <v>0.006435704769641428</v>
       </c>
       <c r="AE9">
-        <v>0.003429999508648251</v>
+        <v>0</v>
       </c>
       <c r="AF9">
-        <v>0.02967225803945767</v>
+        <v>0.003461213793812935</v>
       </c>
       <c r="AG9">
         <v>0</v>
@@ -1774,7 +1774,7 @@
         <v>0</v>
       </c>
       <c r="AK9">
-        <v>0.008135242714984042</v>
+        <v>0</v>
       </c>
       <c r="AL9">
         <v>0</v>
@@ -1815,37 +1815,37 @@
         <v>0</v>
       </c>
       <c r="F10">
-        <v>0.3163155235395083</v>
+        <v>0.4469301648934604</v>
       </c>
       <c r="G10">
-        <v>0.1152533703780135</v>
+        <v>0.1371315433162208</v>
       </c>
       <c r="H10">
-        <v>0.07883061059228176</v>
+        <v>0.08101098259291344</v>
       </c>
       <c r="I10">
-        <v>0.01647877430607383</v>
+        <v>0</v>
       </c>
       <c r="J10">
-        <v>0.02059382546168662</v>
+        <v>0</v>
       </c>
       <c r="K10">
         <v>0</v>
       </c>
       <c r="L10">
-        <v>0.05812895062834336</v>
+        <v>0.04911365323308315</v>
       </c>
       <c r="M10">
-        <v>0.06035328741012961</v>
+        <v>0.05254093409169132</v>
       </c>
       <c r="N10">
-        <v>0.04879337264007068</v>
+        <v>0.03472929920664091</v>
       </c>
       <c r="O10">
-        <v>0.104982170693068</v>
+        <v>0.1213055738122293</v>
       </c>
       <c r="P10">
-        <v>0.005776184890994085</v>
+        <v>0</v>
       </c>
       <c r="Q10">
         <v>0</v>
@@ -1854,25 +1854,25 @@
         <v>0</v>
       </c>
       <c r="S10">
-        <v>0.002838878668694233</v>
+        <v>0</v>
       </c>
       <c r="T10">
         <v>0</v>
       </c>
       <c r="U10">
-        <v>0.0006315118135821621</v>
+        <v>0</v>
       </c>
       <c r="V10">
         <v>0</v>
       </c>
       <c r="W10">
-        <v>0.0006714292799758901</v>
+        <v>0</v>
       </c>
       <c r="X10">
-        <v>0.05261072463385896</v>
+        <v>0.04061111419347663</v>
       </c>
       <c r="Y10">
-        <v>0.02256692484474082</v>
+        <v>0</v>
       </c>
       <c r="Z10">
         <v>0</v>
@@ -1881,19 +1881,19 @@
         <v>0</v>
       </c>
       <c r="AB10">
-        <v>0.008125008129211932</v>
+        <v>0</v>
       </c>
       <c r="AC10">
-        <v>0.05002482569125648</v>
+        <v>0.03662673466028405</v>
       </c>
       <c r="AD10">
-        <v>0.01000656471530021</v>
+        <v>0</v>
       </c>
       <c r="AE10">
         <v>0</v>
       </c>
       <c r="AF10">
-        <v>0.02366283481176901</v>
+        <v>0</v>
       </c>
       <c r="AG10">
         <v>0</v>
@@ -1908,7 +1908,7 @@
         <v>0</v>
       </c>
       <c r="AK10">
-        <v>0.003355226871440836</v>
+        <v>0</v>
       </c>
       <c r="AL10">
         <v>0</v>
@@ -1946,43 +1946,43 @@
         <v>0</v>
       </c>
       <c r="E11">
-        <v>0.0575756089541354</v>
+        <v>0.04839299731272827</v>
       </c>
       <c r="F11">
-        <v>0.05841100957919646</v>
+        <v>0.04975152688548949</v>
       </c>
       <c r="G11">
-        <v>0.2730127430031778</v>
+        <v>0.3987371422613361</v>
       </c>
       <c r="H11">
-        <v>0.04009369540758781</v>
+        <v>0.0199638869805398</v>
       </c>
       <c r="I11">
-        <v>0.07143937364987253</v>
+        <v>0.07093826932229302</v>
       </c>
       <c r="J11">
-        <v>0.007151932493769334</v>
+        <v>0</v>
       </c>
       <c r="K11">
         <v>0</v>
       </c>
       <c r="L11">
-        <v>0.09520626957896633</v>
+        <v>0.1095880261022242</v>
       </c>
       <c r="M11">
-        <v>0.04865353633123048</v>
+        <v>0.03388391131862362</v>
       </c>
       <c r="N11">
-        <v>0.03390768231964361</v>
+        <v>0.009904184527185798</v>
       </c>
       <c r="O11">
-        <v>0.1416285661248582</v>
+        <v>0.1850800245532382</v>
       </c>
       <c r="P11">
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>0.01076138373029104</v>
+        <v>0</v>
       </c>
       <c r="R11">
         <v>0</v>
@@ -1994,40 +1994,40 @@
         <v>0</v>
       </c>
       <c r="U11">
-        <v>0.0005742479696280816</v>
+        <v>0</v>
       </c>
       <c r="V11">
         <v>0</v>
       </c>
       <c r="W11">
-        <v>0.009641079836674926</v>
+        <v>0</v>
       </c>
       <c r="X11">
-        <v>0.03245350063753838</v>
+        <v>0.007539392402253848</v>
       </c>
       <c r="Y11">
-        <v>0.004116730143958617</v>
+        <v>0</v>
       </c>
       <c r="Z11">
         <v>0</v>
       </c>
       <c r="AA11">
-        <v>0.001661318612865093</v>
+        <v>0</v>
       </c>
       <c r="AB11">
-        <v>0.02155770281683633</v>
+        <v>0</v>
       </c>
       <c r="AC11">
-        <v>0.06853836070516064</v>
+        <v>0.0662206383340876</v>
       </c>
       <c r="AD11">
-        <v>0.0003095154810681437</v>
+        <v>0</v>
       </c>
       <c r="AE11">
-        <v>0.006865897086365748</v>
+        <v>0</v>
       </c>
       <c r="AF11">
-        <v>0.01557714564668372</v>
+        <v>0</v>
       </c>
       <c r="AG11">
         <v>0</v>
@@ -2039,7 +2039,7 @@
         <v>0</v>
       </c>
       <c r="AJ11">
-        <v>0.0008626998904912667</v>
+        <v>0</v>
       </c>
       <c r="AK11">
         <v>0</v>
@@ -2251,97 +2251,97 @@
         <v>0</v>
       </c>
       <c r="M2">
-        <v>0.01977693552662991</v>
+        <v>0</v>
       </c>
       <c r="N2">
-        <v>0.07842714285701802</v>
+        <v>0.06258217125510912</v>
       </c>
       <c r="O2">
-        <v>0.2214237767105675</v>
+        <v>0.3094067268168121</v>
       </c>
       <c r="P2">
-        <v>0.2284740076250467</v>
+        <v>0.3094067268168121</v>
       </c>
       <c r="Q2">
-        <v>0.2787162759625559</v>
+        <v>0.3536229898644525</v>
       </c>
       <c r="R2">
-        <v>0.3658142546903165</v>
+        <v>0.4783451408023</v>
       </c>
       <c r="S2">
-        <v>0.3985634233449098</v>
+        <v>0.4843502960727977</v>
       </c>
       <c r="T2">
-        <v>0.4029376212367337</v>
+        <v>0.4843502960727977</v>
       </c>
       <c r="U2">
-        <v>0.500806660506099</v>
+        <v>0.6326002472684426</v>
       </c>
       <c r="V2">
-        <v>0.6657246710014562</v>
+        <v>0.9273088314280906</v>
       </c>
       <c r="W2">
-        <v>0.6658888020683487</v>
+        <v>0.9273088314280906</v>
       </c>
       <c r="X2">
-        <v>0.7193853202433411</v>
+        <v>0.9786335254300954</v>
       </c>
       <c r="Y2">
-        <v>0.7205320758141228</v>
+        <v>0.9786335254300954</v>
       </c>
       <c r="Z2">
-        <v>0.752812528677592</v>
+        <v>0.9836148398755743</v>
       </c>
       <c r="AA2">
-        <v>0.76365890451009</v>
+        <v>0.9836148398755743</v>
       </c>
       <c r="AB2">
-        <v>0.7830096124705305</v>
+        <v>0.9836148398755743</v>
       </c>
       <c r="AC2">
-        <v>0.805661923358128</v>
+        <v>0.9836148398755743</v>
       </c>
       <c r="AD2">
-        <v>0.8096482300558164</v>
+        <v>0.9836148398755743</v>
       </c>
       <c r="AE2">
-        <v>0.8408988404490549</v>
+        <v>0.9863466146547417</v>
       </c>
       <c r="AF2">
-        <v>0.8771493797489581</v>
+        <v>1</v>
       </c>
       <c r="AG2">
-        <v>0.8854178436098359</v>
+        <v>1</v>
       </c>
       <c r="AH2">
-        <v>0.9021645242498544</v>
+        <v>1</v>
       </c>
       <c r="AI2">
-        <v>0.9053957271168013</v>
+        <v>1</v>
       </c>
       <c r="AJ2">
-        <v>0.9207136582109466</v>
+        <v>1</v>
       </c>
       <c r="AK2">
-        <v>0.9424717794099352</v>
+        <v>1</v>
       </c>
       <c r="AL2">
-        <v>0.9629605374304581</v>
+        <v>1</v>
       </c>
       <c r="AM2">
-        <v>0.9766394687726225</v>
+        <v>1</v>
       </c>
       <c r="AN2">
-        <v>0.9817632845516089</v>
+        <v>1</v>
       </c>
       <c r="AO2">
-        <v>0.985466337731173</v>
+        <v>1</v>
       </c>
       <c r="AP2">
-        <v>0.9989001477328072</v>
+        <v>1</v>
       </c>
       <c r="AQ2">
-        <v>0.9997041433024719</v>
+        <v>1</v>
       </c>
       <c r="AR2">
         <v>1</v>
@@ -2361,124 +2361,124 @@
         <v>0</v>
       </c>
       <c r="E3">
-        <v>0.2730175572682059</v>
+        <v>0.3461149261124868</v>
       </c>
       <c r="F3">
-        <v>0.3473865681402473</v>
+        <v>0.414660959771307</v>
       </c>
       <c r="G3">
-        <v>0.4978710344691656</v>
+        <v>0.5895620765810384</v>
       </c>
       <c r="H3">
-        <v>0.4978710344691656</v>
+        <v>0.5895620765810384</v>
       </c>
       <c r="I3">
-        <v>0.6446500320746111</v>
+        <v>0.7592855927072751</v>
       </c>
       <c r="J3">
-        <v>0.6446500320746111</v>
+        <v>0.7592855927072751</v>
       </c>
       <c r="K3">
-        <v>0.6658272368069357</v>
+        <v>0.7592855927072751</v>
       </c>
       <c r="L3">
-        <v>0.7394484151744725</v>
+        <v>0.8267866902526328</v>
       </c>
       <c r="M3">
-        <v>0.8881812304092271</v>
+        <v>0.9992402489855858</v>
       </c>
       <c r="N3">
-        <v>0.9123222662013355</v>
+        <v>0.9992402489855858</v>
       </c>
       <c r="O3">
-        <v>0.9123222662013355</v>
+        <v>0.9992402489855858</v>
       </c>
       <c r="P3">
-        <v>0.9123222662013355</v>
+        <v>0.9992402489855858</v>
       </c>
       <c r="Q3">
-        <v>0.9219089948436238</v>
+        <v>0.9992402489855858</v>
       </c>
       <c r="R3">
-        <v>0.9219089948436238</v>
+        <v>0.9992402489855858</v>
       </c>
       <c r="S3">
-        <v>0.9219089948436238</v>
+        <v>0.9992402489855858</v>
       </c>
       <c r="T3">
-        <v>0.9236656624121435</v>
+        <v>0.9992402489855858</v>
       </c>
       <c r="U3">
-        <v>0.9236656624121435</v>
+        <v>0.9992402489855858</v>
       </c>
       <c r="V3">
-        <v>0.9236656624121435</v>
+        <v>0.9992402489855858</v>
       </c>
       <c r="W3">
-        <v>0.9394175800550448</v>
+        <v>0.9992402489855858</v>
       </c>
       <c r="X3">
-        <v>0.9509249581164416</v>
+        <v>0.9992402489855858</v>
       </c>
       <c r="Y3">
-        <v>0.9509249581164416</v>
+        <v>0.9992402489855858</v>
       </c>
       <c r="Z3">
-        <v>0.9509249581164416</v>
+        <v>0.9992402489855858</v>
       </c>
       <c r="AA3">
-        <v>0.9509249581164416</v>
+        <v>0.9992402489855858</v>
       </c>
       <c r="AB3">
-        <v>0.9767811605326199</v>
+        <v>1</v>
       </c>
       <c r="AC3">
-        <v>0.9871094108723739</v>
+        <v>1</v>
       </c>
       <c r="AD3">
-        <v>0.9871094108723739</v>
+        <v>1</v>
       </c>
       <c r="AE3">
-        <v>0.9943611386658493</v>
+        <v>1</v>
       </c>
       <c r="AF3">
-        <v>0.9943611386658493</v>
+        <v>1</v>
       </c>
       <c r="AG3">
-        <v>0.9943611386658493</v>
+        <v>1</v>
       </c>
       <c r="AH3">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="AI3">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="AJ3">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="AK3">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="AL3">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="AM3">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="AN3">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="AO3">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="AP3">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="AQ3">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="AR3">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:44">
@@ -2495,124 +2495,124 @@
         <v>0</v>
       </c>
       <c r="E4">
-        <v>0.1827515623332572</v>
+        <v>0.2494793990202426</v>
       </c>
       <c r="F4">
-        <v>0.2048536929956242</v>
+        <v>0.2494793990202426</v>
       </c>
       <c r="G4">
-        <v>0.3589353724689748</v>
+        <v>0.453293983320702</v>
       </c>
       <c r="H4">
-        <v>0.3823632198652484</v>
+        <v>0.453293983320702</v>
       </c>
       <c r="I4">
-        <v>0.4806613787873045</v>
+        <v>0.5682576942904441</v>
       </c>
       <c r="J4">
-        <v>0.4806613787873045</v>
+        <v>0.5682576942904441</v>
       </c>
       <c r="K4">
-        <v>0.4964411815965415</v>
+        <v>0.5682576942904441</v>
       </c>
       <c r="L4">
-        <v>0.5305150646950272</v>
+        <v>0.5809262661301643</v>
       </c>
       <c r="M4">
-        <v>0.6968345211294612</v>
+        <v>0.8042329362630152</v>
       </c>
       <c r="N4">
-        <v>0.7470876353755533</v>
+        <v>0.8426714631553662</v>
       </c>
       <c r="O4">
-        <v>0.7470876353755533</v>
+        <v>0.8426714631553662</v>
       </c>
       <c r="P4">
-        <v>0.7470876353755533</v>
+        <v>0.8426714631553662</v>
       </c>
       <c r="Q4">
-        <v>0.7533891763258677</v>
+        <v>0.8426714631553662</v>
       </c>
       <c r="R4">
-        <v>0.7610444532884657</v>
+        <v>0.8426714631553662</v>
       </c>
       <c r="S4">
-        <v>0.7610444532884657</v>
+        <v>0.8426714631553662</v>
       </c>
       <c r="T4">
-        <v>0.7610444532884657</v>
+        <v>0.8426714631553662</v>
       </c>
       <c r="U4">
-        <v>0.7907503180251656</v>
+        <v>0.8483827429071407</v>
       </c>
       <c r="V4">
-        <v>0.7907503180251656</v>
+        <v>0.8483827429071407</v>
       </c>
       <c r="W4">
-        <v>0.809819309653008</v>
+        <v>0.8483827429071407</v>
       </c>
       <c r="X4">
-        <v>0.8592798690043529</v>
+        <v>0.8855589042502241</v>
       </c>
       <c r="Y4">
-        <v>0.8592798690043529</v>
+        <v>0.8855589042502241</v>
       </c>
       <c r="Z4">
-        <v>0.8592798690043529</v>
+        <v>0.8855589042502241</v>
       </c>
       <c r="AA4">
-        <v>0.8592798690043529</v>
+        <v>0.8855589042502241</v>
       </c>
       <c r="AB4">
-        <v>0.9354422057783257</v>
+        <v>0.9652651214240677</v>
       </c>
       <c r="AC4">
-        <v>0.9833700469659898</v>
+        <v>1</v>
       </c>
       <c r="AD4">
-        <v>0.9833700469659898</v>
+        <v>1</v>
       </c>
       <c r="AE4">
-        <v>0.9985339518682113</v>
+        <v>1</v>
       </c>
       <c r="AF4">
-        <v>0.9985339518682113</v>
+        <v>1</v>
       </c>
       <c r="AG4">
-        <v>0.9985339518682113</v>
+        <v>1</v>
       </c>
       <c r="AH4">
-        <v>0.9985339518682113</v>
+        <v>1</v>
       </c>
       <c r="AI4">
-        <v>0.9985339518682113</v>
+        <v>1</v>
       </c>
       <c r="AJ4">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="AK4">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="AL4">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="AM4">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="AN4">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="AO4">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="AP4">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="AQ4">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="AR4">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:44">
@@ -2653,100 +2653,100 @@
         <v>0</v>
       </c>
       <c r="M5">
-        <v>0.1395680392387812</v>
+        <v>0.2009826295297808</v>
       </c>
       <c r="N5">
-        <v>0.1435913391860314</v>
+        <v>0.2009826295297808</v>
       </c>
       <c r="O5">
-        <v>0.3189539635690448</v>
+        <v>0.4676239118491525</v>
       </c>
       <c r="P5">
-        <v>0.3192269267657201</v>
+        <v>0.4676239118491525</v>
       </c>
       <c r="Q5">
-        <v>0.3905643146791361</v>
+        <v>0.543449827676898</v>
       </c>
       <c r="R5">
-        <v>0.4229061366001375</v>
+        <v>0.5477454738419957</v>
       </c>
       <c r="S5">
-        <v>0.4428328175279805</v>
+        <v>0.5477454738419957</v>
       </c>
       <c r="T5">
-        <v>0.5090463582503281</v>
+        <v>0.6141726244009252</v>
       </c>
       <c r="U5">
-        <v>0.6917195159604663</v>
+        <v>0.8942237497872942</v>
       </c>
       <c r="V5">
-        <v>0.7523082791121576</v>
+        <v>0.9503332694519901</v>
       </c>
       <c r="W5">
-        <v>0.7523117249391247</v>
+        <v>0.9503332694519901</v>
       </c>
       <c r="X5">
-        <v>0.7523311326052711</v>
+        <v>0.9503332694519901</v>
       </c>
       <c r="Y5">
-        <v>0.7964521802018707</v>
+        <v>0.9762357616148257</v>
       </c>
       <c r="Z5">
-        <v>0.7990002474912679</v>
+        <v>0.9762357616148257</v>
       </c>
       <c r="AA5">
-        <v>0.8066572843298049</v>
+        <v>0.9762357616148257</v>
       </c>
       <c r="AB5">
-        <v>0.8122084577953391</v>
+        <v>0.9762357616148257</v>
       </c>
       <c r="AC5">
-        <v>0.8371270063654608</v>
+        <v>0.9762357616148257</v>
       </c>
       <c r="AD5">
-        <v>0.8418143042267803</v>
+        <v>0.9762357616148257</v>
       </c>
       <c r="AE5">
-        <v>0.8749475958716803</v>
+        <v>0.9819832149620861</v>
       </c>
       <c r="AF5">
-        <v>0.914769657681745</v>
+        <v>1</v>
       </c>
       <c r="AG5">
-        <v>0.9178636682603245</v>
+        <v>1</v>
       </c>
       <c r="AH5">
-        <v>0.9178939940371144</v>
+        <v>1</v>
       </c>
       <c r="AI5">
-        <v>0.9184363586856785</v>
+        <v>1</v>
       </c>
       <c r="AJ5">
-        <v>0.9270203711983688</v>
+        <v>1</v>
       </c>
       <c r="AK5">
-        <v>0.9564594616318035</v>
+        <v>1</v>
       </c>
       <c r="AL5">
-        <v>0.9584215402004155</v>
+        <v>1</v>
       </c>
       <c r="AM5">
-        <v>0.9688505654767664</v>
+        <v>1</v>
       </c>
       <c r="AN5">
-        <v>0.970494896653501</v>
+        <v>1</v>
       </c>
       <c r="AO5">
-        <v>0.9718345145726314</v>
+        <v>1</v>
       </c>
       <c r="AP5">
-        <v>0.9922213941673571</v>
+        <v>1</v>
       </c>
       <c r="AQ5">
-        <v>0.9999889797437089</v>
+        <v>1</v>
       </c>
       <c r="AR5">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:44">
@@ -2760,94 +2760,94 @@
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.01972116549166761</v>
+        <v>0</v>
       </c>
       <c r="E6">
-        <v>0.1350858471035626</v>
+        <v>0.137306690194392</v>
       </c>
       <c r="F6">
-        <v>0.403836263436872</v>
+        <v>0.5132814161592334</v>
       </c>
       <c r="G6">
-        <v>0.4406327419507527</v>
+        <v>0.5283360681085145</v>
       </c>
       <c r="H6">
-        <v>0.4876684905132256</v>
+        <v>0.5593230130748692</v>
       </c>
       <c r="I6">
-        <v>0.5680755100177511</v>
+        <v>0.6422356191945828</v>
       </c>
       <c r="J6">
-        <v>0.5680755100177511</v>
+        <v>0.6422356191945828</v>
       </c>
       <c r="K6">
-        <v>0.5869014232055532</v>
+        <v>0.6422356191945828</v>
       </c>
       <c r="L6">
-        <v>0.7204935139717582</v>
+        <v>0.8079041381336406</v>
       </c>
       <c r="M6">
-        <v>0.8101340367054051</v>
+        <v>0.9051840651973587</v>
       </c>
       <c r="N6">
-        <v>0.8101340367054051</v>
+        <v>0.9051840651973587</v>
       </c>
       <c r="O6">
-        <v>0.8101340367054051</v>
+        <v>0.9051840651973587</v>
       </c>
       <c r="P6">
-        <v>0.8151714743283939</v>
+        <v>0.9051840651973587</v>
       </c>
       <c r="Q6">
-        <v>0.8244861014120262</v>
+        <v>0.9051840651973587</v>
       </c>
       <c r="R6">
-        <v>0.8244861014120262</v>
+        <v>0.9051840651973587</v>
       </c>
       <c r="S6">
-        <v>0.8244861014120262</v>
+        <v>0.9051840651973587</v>
       </c>
       <c r="T6">
-        <v>0.8482450368883977</v>
+        <v>0.9051840651973587</v>
       </c>
       <c r="U6">
-        <v>0.8482450368883977</v>
+        <v>0.9051840651973587</v>
       </c>
       <c r="V6">
-        <v>0.8531595905836135</v>
+        <v>0.9051840651973587</v>
       </c>
       <c r="W6">
-        <v>0.90295387196446</v>
+        <v>0.9404632842175249</v>
       </c>
       <c r="X6">
-        <v>0.9039094725501834</v>
+        <v>0.9404632842175249</v>
       </c>
       <c r="Y6">
-        <v>0.9039094725501834</v>
+        <v>0.9404632842175249</v>
       </c>
       <c r="Z6">
-        <v>0.9039094725501834</v>
+        <v>0.9404632842175249</v>
       </c>
       <c r="AA6">
-        <v>0.9110730172715953</v>
+        <v>0.9404632842175249</v>
       </c>
       <c r="AB6">
-        <v>0.9764569604660904</v>
+        <v>1</v>
       </c>
       <c r="AC6">
-        <v>0.9804292526686451</v>
+        <v>1</v>
       </c>
       <c r="AD6">
-        <v>0.9804292526686451</v>
+        <v>1</v>
       </c>
       <c r="AE6">
-        <v>0.9866406520899554</v>
+        <v>1</v>
       </c>
       <c r="AF6">
-        <v>0.9866406520899554</v>
+        <v>1</v>
       </c>
       <c r="AG6">
-        <v>0.99657396907659</v>
+        <v>1</v>
       </c>
       <c r="AH6">
         <v>1</v>
@@ -2897,124 +2897,124 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>0.2197065473858094</v>
+        <v>0.3081248623852492</v>
       </c>
       <c r="F7">
-        <v>0.2607001162273293</v>
+        <v>0.3286538610849923</v>
       </c>
       <c r="G7">
-        <v>0.3197189523386806</v>
+        <v>0.3781902231606669</v>
       </c>
       <c r="H7">
-        <v>0.3197189523386806</v>
+        <v>0.3781902231606669</v>
       </c>
       <c r="I7">
-        <v>0.4151575274800099</v>
+        <v>0.4863354584521806</v>
       </c>
       <c r="J7">
-        <v>0.4151575274800099</v>
+        <v>0.4863354584521806</v>
       </c>
       <c r="K7">
-        <v>0.4210506272308096</v>
+        <v>0.4863354584521806</v>
       </c>
       <c r="L7">
-        <v>0.4453023417233868</v>
+        <v>0.4863354584521806</v>
       </c>
       <c r="M7">
-        <v>0.6641847388942878</v>
+        <v>0.7931340478672524</v>
       </c>
       <c r="N7">
-        <v>0.7015484209532692</v>
+        <v>0.8078216105794798</v>
       </c>
       <c r="O7">
-        <v>0.7015484209532692</v>
+        <v>0.8078216105794798</v>
       </c>
       <c r="P7">
-        <v>0.7015484209532692</v>
+        <v>0.8078216105794798</v>
       </c>
       <c r="Q7">
-        <v>0.7793707585369359</v>
+        <v>0.887617718143656</v>
       </c>
       <c r="R7">
-        <v>0.7793707585369359</v>
+        <v>0.887617718143656</v>
       </c>
       <c r="S7">
-        <v>0.7793707585369359</v>
+        <v>0.887617718143656</v>
       </c>
       <c r="T7">
-        <v>0.8021107276968654</v>
+        <v>0.887617718143656</v>
       </c>
       <c r="U7">
-        <v>0.8021107276968654</v>
+        <v>0.887617718143656</v>
       </c>
       <c r="V7">
-        <v>0.8047099210682949</v>
+        <v>0.887617718143656</v>
       </c>
       <c r="W7">
-        <v>0.902781410334772</v>
+        <v>1</v>
       </c>
       <c r="X7">
-        <v>0.910819962640381</v>
+        <v>1</v>
       </c>
       <c r="Y7">
-        <v>0.910819962640381</v>
+        <v>1</v>
       </c>
       <c r="Z7">
-        <v>0.910819962640381</v>
+        <v>1</v>
       </c>
       <c r="AA7">
-        <v>0.9253003158537806</v>
+        <v>1</v>
       </c>
       <c r="AB7">
-        <v>0.927717721566432</v>
+        <v>1</v>
       </c>
       <c r="AC7">
-        <v>0.9433971693606041</v>
+        <v>1</v>
       </c>
       <c r="AD7">
-        <v>0.9550321338911995</v>
+        <v>1</v>
       </c>
       <c r="AE7">
-        <v>0.9809993625040919</v>
+        <v>1</v>
       </c>
       <c r="AF7">
-        <v>0.9851665920809107</v>
+        <v>1</v>
       </c>
       <c r="AG7">
-        <v>0.9878312723502838</v>
+        <v>1</v>
       </c>
       <c r="AH7">
-        <v>0.9987472072998609</v>
+        <v>1</v>
       </c>
       <c r="AI7">
-        <v>0.9999999999999996</v>
+        <v>1</v>
       </c>
       <c r="AJ7">
-        <v>0.9999999999999996</v>
+        <v>1</v>
       </c>
       <c r="AK7">
-        <v>0.9999999999999996</v>
+        <v>1</v>
       </c>
       <c r="AL7">
-        <v>0.9999999999999996</v>
+        <v>1</v>
       </c>
       <c r="AM7">
-        <v>0.9999999999999996</v>
+        <v>1</v>
       </c>
       <c r="AN7">
-        <v>0.9999999999999996</v>
+        <v>1</v>
       </c>
       <c r="AO7">
-        <v>0.9999999999999996</v>
+        <v>1</v>
       </c>
       <c r="AP7">
-        <v>0.9999999999999996</v>
+        <v>1</v>
       </c>
       <c r="AQ7">
-        <v>0.9999999999999996</v>
+        <v>1</v>
       </c>
       <c r="AR7">
-        <v>0.9999999999999996</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:44">
@@ -3031,124 +3031,124 @@
         <v>0</v>
       </c>
       <c r="E8">
-        <v>0.1888033250935869</v>
+        <v>0.2493436412057553</v>
       </c>
       <c r="F8">
-        <v>0.1888033250935869</v>
+        <v>0.2493436412057553</v>
       </c>
       <c r="G8">
-        <v>0.4270801589280716</v>
+        <v>0.5731919433352042</v>
       </c>
       <c r="H8">
-        <v>0.4404811324642677</v>
+        <v>0.5731919433352042</v>
       </c>
       <c r="I8">
-        <v>0.5134268788006108</v>
+        <v>0.6480597925376956</v>
       </c>
       <c r="J8">
-        <v>0.5134268788006108</v>
+        <v>0.6480597925376956</v>
       </c>
       <c r="K8">
-        <v>0.5378720283119506</v>
+        <v>0.6498881381147555</v>
       </c>
       <c r="L8">
-        <v>0.5819456797572016</v>
+        <v>0.6812760382543401</v>
       </c>
       <c r="M8">
-        <v>0.633709317704091</v>
+        <v>0.7242446782968281</v>
       </c>
       <c r="N8">
-        <v>0.6767120888783964</v>
+        <v>0.7540198856335933</v>
       </c>
       <c r="O8">
-        <v>0.7555723904841214</v>
+        <v>0.8377947629825536</v>
       </c>
       <c r="P8">
-        <v>0.7555723904841214</v>
+        <v>0.8377947629825536</v>
       </c>
       <c r="Q8">
-        <v>0.7606090194488417</v>
+        <v>0.8377947629825536</v>
       </c>
       <c r="R8">
-        <v>0.7606090194488417</v>
+        <v>0.8377947629825536</v>
       </c>
       <c r="S8">
-        <v>0.7606090194488417</v>
+        <v>0.8377947629825536</v>
       </c>
       <c r="T8">
-        <v>0.7606090194488417</v>
+        <v>0.8377947629825536</v>
       </c>
       <c r="U8">
-        <v>0.7731413728410875</v>
+        <v>0.8377947629825536</v>
       </c>
       <c r="V8">
-        <v>0.7731413728410875</v>
+        <v>0.8377947629825536</v>
       </c>
       <c r="W8">
-        <v>0.8022729556956948</v>
+        <v>0.8466806457359285</v>
       </c>
       <c r="X8">
-        <v>0.8557686917876295</v>
+        <v>0.8922577400455074</v>
       </c>
       <c r="Y8">
-        <v>0.8557686917876295</v>
+        <v>0.8922577400455074</v>
       </c>
       <c r="Z8">
-        <v>0.8557686917876295</v>
+        <v>0.8922577400455074</v>
       </c>
       <c r="AA8">
-        <v>0.8557686917876295</v>
+        <v>0.8922577400455074</v>
       </c>
       <c r="AB8">
-        <v>0.8899397734901979</v>
+        <v>0.9087328591891912</v>
       </c>
       <c r="AC8">
-        <v>0.966286369087119</v>
+        <v>0.9887222194278</v>
       </c>
       <c r="AD8">
-        <v>0.966286369087119</v>
+        <v>0.9887222194278</v>
       </c>
       <c r="AE8">
-        <v>0.9970062495888783</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AF8">
-        <v>0.9999999999999998</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AG8">
-        <v>0.9999999999999998</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AH8">
-        <v>0.9999999999999998</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AI8">
-        <v>0.9999999999999998</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AJ8">
-        <v>0.9999999999999998</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AK8">
-        <v>0.9999999999999998</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AL8">
-        <v>0.9999999999999998</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AM8">
-        <v>0.9999999999999998</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AN8">
-        <v>0.9999999999999998</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AO8">
-        <v>0.9999999999999998</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AP8">
-        <v>0.9999999999999998</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AQ8">
-        <v>0.9999999999999998</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AR8">
-        <v>0.9999999999999998</v>
+        <v>0.9999999999999999</v>
       </c>
     </row>
     <row r="9" spans="1:44">
@@ -3168,121 +3168,121 @@
         <v>0</v>
       </c>
       <c r="F9">
-        <v>0.2572275844632843</v>
+        <v>0.393440871599695</v>
       </c>
       <c r="G9">
-        <v>0.4050683868520323</v>
+        <v>0.5994169164589179</v>
       </c>
       <c r="H9">
-        <v>0.4546092839552432</v>
+        <v>0.6369285969454753</v>
       </c>
       <c r="I9">
-        <v>0.5253577438410075</v>
+        <v>0.7107853641712149</v>
       </c>
       <c r="J9">
-        <v>0.5475613809684499</v>
+        <v>0.7107853641712149</v>
       </c>
       <c r="K9">
-        <v>0.5475613809684499</v>
+        <v>0.7107853641712149</v>
       </c>
       <c r="L9">
-        <v>0.5648350818563463</v>
+        <v>0.7107853641712149</v>
       </c>
       <c r="M9">
-        <v>0.6447278199321431</v>
+        <v>0.8003134080727146</v>
       </c>
       <c r="N9">
-        <v>0.6769492894401457</v>
+        <v>0.8081434082702628</v>
       </c>
       <c r="O9">
-        <v>0.7593768728158542</v>
+        <v>0.9020156181299314</v>
       </c>
       <c r="P9">
-        <v>0.78041890887523</v>
+        <v>0.9020156181299314</v>
       </c>
       <c r="Q9">
-        <v>0.7875096264022524</v>
+        <v>0.9020156181299314</v>
       </c>
       <c r="R9">
-        <v>0.7875096264022524</v>
+        <v>0.9020156181299314</v>
       </c>
       <c r="S9">
-        <v>0.7875096264022524</v>
+        <v>0.9020156181299314</v>
       </c>
       <c r="T9">
-        <v>0.7875096264022524</v>
+        <v>0.9020156181299314</v>
       </c>
       <c r="U9">
-        <v>0.7964887735982936</v>
+        <v>0.9020156181299314</v>
       </c>
       <c r="V9">
-        <v>0.7964887735982936</v>
+        <v>0.9020156181299314</v>
       </c>
       <c r="W9">
-        <v>0.7984917161014163</v>
+        <v>0.9020156181299314</v>
       </c>
       <c r="X9">
-        <v>0.8434040787033336</v>
+        <v>0.9315950109863792</v>
       </c>
       <c r="Y9">
-        <v>0.8543382000292508</v>
+        <v>0.9315950109863792</v>
       </c>
       <c r="Z9">
-        <v>0.8543382000292508</v>
+        <v>0.9315950109863792</v>
       </c>
       <c r="AA9">
-        <v>0.8543382000292508</v>
+        <v>0.9315950109863792</v>
       </c>
       <c r="AB9">
-        <v>0.8655622005787563</v>
+        <v>0.9315950109863792</v>
       </c>
       <c r="AC9">
-        <v>0.9273546094627928</v>
+        <v>0.9901030814365458</v>
       </c>
       <c r="AD9">
-        <v>0.95876249973691</v>
+        <v>0.9965387862061872</v>
       </c>
       <c r="AE9">
-        <v>0.9621924992455582</v>
+        <v>0.9965387862061872</v>
       </c>
       <c r="AF9">
-        <v>0.9918647572850159</v>
+        <v>1</v>
       </c>
       <c r="AG9">
-        <v>0.9918647572850159</v>
+        <v>1</v>
       </c>
       <c r="AH9">
-        <v>0.9918647572850159</v>
+        <v>1</v>
       </c>
       <c r="AI9">
-        <v>0.9918647572850159</v>
+        <v>1</v>
       </c>
       <c r="AJ9">
-        <v>0.9918647572850159</v>
+        <v>1</v>
       </c>
       <c r="AK9">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="AL9">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="AM9">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="AN9">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="AO9">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="AP9">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="AQ9">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="AR9">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:44">
@@ -3302,97 +3302,97 @@
         <v>0</v>
       </c>
       <c r="F10">
-        <v>0.3163155235395083</v>
+        <v>0.4469301648934604</v>
       </c>
       <c r="G10">
-        <v>0.4315688939175218</v>
+        <v>0.5840617082096812</v>
       </c>
       <c r="H10">
-        <v>0.5103995045098035</v>
+        <v>0.6650726908025946</v>
       </c>
       <c r="I10">
-        <v>0.5268782788158773</v>
+        <v>0.6650726908025946</v>
       </c>
       <c r="J10">
-        <v>0.547472104277564</v>
+        <v>0.6650726908025946</v>
       </c>
       <c r="K10">
-        <v>0.547472104277564</v>
+        <v>0.6650726908025946</v>
       </c>
       <c r="L10">
-        <v>0.6056010549059073</v>
+        <v>0.7141863440356777</v>
       </c>
       <c r="M10">
-        <v>0.6659543423160369</v>
+        <v>0.7667272781273691</v>
       </c>
       <c r="N10">
-        <v>0.7147477149561076</v>
+        <v>0.80145657733401</v>
       </c>
       <c r="O10">
-        <v>0.8197298856491756</v>
+        <v>0.9227621511462393</v>
       </c>
       <c r="P10">
-        <v>0.8255060705401697</v>
+        <v>0.9227621511462393</v>
       </c>
       <c r="Q10">
-        <v>0.8255060705401697</v>
+        <v>0.9227621511462393</v>
       </c>
       <c r="R10">
-        <v>0.8255060705401697</v>
+        <v>0.9227621511462393</v>
       </c>
       <c r="S10">
-        <v>0.8283449492088639</v>
+        <v>0.9227621511462393</v>
       </c>
       <c r="T10">
-        <v>0.8283449492088639</v>
+        <v>0.9227621511462393</v>
       </c>
       <c r="U10">
-        <v>0.828976461022446</v>
+        <v>0.9227621511462393</v>
       </c>
       <c r="V10">
-        <v>0.828976461022446</v>
+        <v>0.9227621511462393</v>
       </c>
       <c r="W10">
-        <v>0.8296478903024219</v>
+        <v>0.9227621511462393</v>
       </c>
       <c r="X10">
-        <v>0.8822586149362809</v>
+        <v>0.9633732653397159</v>
       </c>
       <c r="Y10">
-        <v>0.9048255397810218</v>
+        <v>0.9633732653397159</v>
       </c>
       <c r="Z10">
-        <v>0.9048255397810218</v>
+        <v>0.9633732653397159</v>
       </c>
       <c r="AA10">
-        <v>0.9048255397810218</v>
+        <v>0.9633732653397159</v>
       </c>
       <c r="AB10">
-        <v>0.9129505479102337</v>
+        <v>0.9633732653397159</v>
       </c>
       <c r="AC10">
-        <v>0.9629753736014901</v>
+        <v>1</v>
       </c>
       <c r="AD10">
-        <v>0.9729819383167904</v>
+        <v>1</v>
       </c>
       <c r="AE10">
-        <v>0.9729819383167904</v>
+        <v>1</v>
       </c>
       <c r="AF10">
-        <v>0.9966447731285594</v>
+        <v>1</v>
       </c>
       <c r="AG10">
-        <v>0.9966447731285594</v>
+        <v>1</v>
       </c>
       <c r="AH10">
-        <v>0.9966447731285594</v>
+        <v>1</v>
       </c>
       <c r="AI10">
-        <v>0.9966447731285594</v>
+        <v>1</v>
       </c>
       <c r="AJ10">
-        <v>0.9966447731285594</v>
+        <v>1</v>
       </c>
       <c r="AK10">
         <v>1</v>
@@ -3433,97 +3433,97 @@
         <v>0</v>
       </c>
       <c r="E11">
-        <v>0.0575756089541354</v>
+        <v>0.04839299731272827</v>
       </c>
       <c r="F11">
-        <v>0.1159866185333319</v>
+        <v>0.09814452419821776</v>
       </c>
       <c r="G11">
-        <v>0.3889993615365097</v>
+        <v>0.4968816664595539</v>
       </c>
       <c r="H11">
-        <v>0.4290930569440975</v>
+        <v>0.5168455534400936</v>
       </c>
       <c r="I11">
-        <v>0.50053243059397</v>
+        <v>0.5877838227623866</v>
       </c>
       <c r="J11">
-        <v>0.5076843630877393</v>
+        <v>0.5877838227623866</v>
       </c>
       <c r="K11">
-        <v>0.5076843630877393</v>
+        <v>0.5877838227623866</v>
       </c>
       <c r="L11">
-        <v>0.6028906326667056</v>
+        <v>0.6973718488646108</v>
       </c>
       <c r="M11">
-        <v>0.6515441689979361</v>
+        <v>0.7312557601832345</v>
       </c>
       <c r="N11">
-        <v>0.6854518513175797</v>
+        <v>0.7411599447104202</v>
       </c>
       <c r="O11">
-        <v>0.827080417442438</v>
+        <v>0.9262399692636585</v>
       </c>
       <c r="P11">
-        <v>0.827080417442438</v>
+        <v>0.9262399692636585</v>
       </c>
       <c r="Q11">
-        <v>0.837841801172729</v>
+        <v>0.9262399692636585</v>
       </c>
       <c r="R11">
-        <v>0.837841801172729</v>
+        <v>0.9262399692636585</v>
       </c>
       <c r="S11">
-        <v>0.837841801172729</v>
+        <v>0.9262399692636585</v>
       </c>
       <c r="T11">
-        <v>0.837841801172729</v>
+        <v>0.9262399692636585</v>
       </c>
       <c r="U11">
-        <v>0.8384160491423571</v>
+        <v>0.9262399692636585</v>
       </c>
       <c r="V11">
-        <v>0.8384160491423571</v>
+        <v>0.9262399692636585</v>
       </c>
       <c r="W11">
-        <v>0.8480571289790321</v>
+        <v>0.9262399692636585</v>
       </c>
       <c r="X11">
-        <v>0.8805106296165705</v>
+        <v>0.9337793616659124</v>
       </c>
       <c r="Y11">
-        <v>0.8846273597605291</v>
+        <v>0.9337793616659124</v>
       </c>
       <c r="Z11">
-        <v>0.8846273597605291</v>
+        <v>0.9337793616659124</v>
       </c>
       <c r="AA11">
-        <v>0.8862886783733942</v>
+        <v>0.9337793616659124</v>
       </c>
       <c r="AB11">
-        <v>0.9078463811902305</v>
+        <v>0.9337793616659124</v>
       </c>
       <c r="AC11">
-        <v>0.9763847418953912</v>
+        <v>1</v>
       </c>
       <c r="AD11">
-        <v>0.9766942573764593</v>
+        <v>1</v>
       </c>
       <c r="AE11">
-        <v>0.9835601544628251</v>
+        <v>1</v>
       </c>
       <c r="AF11">
-        <v>0.9991373001095087</v>
+        <v>1</v>
       </c>
       <c r="AG11">
-        <v>0.9991373001095087</v>
+        <v>1</v>
       </c>
       <c r="AH11">
-        <v>0.9991373001095087</v>
+        <v>1</v>
       </c>
       <c r="AI11">
-        <v>0.9991373001095087</v>
+        <v>1</v>
       </c>
       <c r="AJ11">
         <v>1</v>
@@ -3612,34 +3612,34 @@
         <v>44</v>
       </c>
       <c r="B2">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="C2">
         <v>11</v>
       </c>
       <c r="D2">
+        <v>0.5</v>
+      </c>
+      <c r="E2">
+        <v>0.6326002472684426</v>
+      </c>
+      <c r="F2">
         <v>20</v>
       </c>
-      <c r="E2">
-        <v>0</v>
-      </c>
-      <c r="F2">
-        <v>0.500806660506099</v>
-      </c>
       <c r="G2">
+        <v>850</v>
+      </c>
+      <c r="H2">
         <v>9</v>
       </c>
-      <c r="H2">
+      <c r="I2" t="s">
+        <v>66</v>
+      </c>
+      <c r="J2" t="s">
+        <v>67</v>
+      </c>
+      <c r="K2">
         <v>7</v>
-      </c>
-      <c r="I2">
-        <v>850</v>
-      </c>
-      <c r="J2" t="s">
-        <v>66</v>
-      </c>
-      <c r="K2" t="s">
-        <v>67</v>
       </c>
       <c r="L2" t="s">
         <v>68</v>
@@ -3653,34 +3653,34 @@
         <v>45</v>
       </c>
       <c r="B3">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="C3">
         <v>2</v>
       </c>
       <c r="D3">
-        <v>8</v>
+        <v>0.5</v>
       </c>
       <c r="E3">
-        <v>0</v>
+        <v>0.5895620765810384</v>
       </c>
       <c r="F3">
-        <v>0.6446500320746111</v>
+        <v>6</v>
       </c>
       <c r="G3">
-        <v>6</v>
+        <v>850</v>
       </c>
       <c r="H3">
+        <v>4</v>
+      </c>
+      <c r="I3" t="s">
+        <v>66</v>
+      </c>
+      <c r="J3" t="s">
+        <v>67</v>
+      </c>
+      <c r="K3">
         <v>7</v>
-      </c>
-      <c r="I3">
-        <v>850</v>
-      </c>
-      <c r="J3" t="s">
-        <v>66</v>
-      </c>
-      <c r="K3" t="s">
-        <v>67</v>
       </c>
       <c r="L3" t="s">
         <v>68</v>
@@ -3694,34 +3694,34 @@
         <v>46</v>
       </c>
       <c r="B4">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="C4">
         <v>2</v>
       </c>
       <c r="D4">
-        <v>11</v>
+        <v>0.5</v>
       </c>
       <c r="E4">
-        <v>0</v>
+        <v>0.5682576942904441</v>
       </c>
       <c r="F4">
-        <v>0.5305150646950272</v>
+        <v>8</v>
       </c>
       <c r="G4">
-        <v>9</v>
+        <v>850</v>
       </c>
       <c r="H4">
+        <v>6</v>
+      </c>
+      <c r="I4" t="s">
+        <v>66</v>
+      </c>
+      <c r="J4" t="s">
+        <v>67</v>
+      </c>
+      <c r="K4">
         <v>7</v>
-      </c>
-      <c r="I4">
-        <v>850</v>
-      </c>
-      <c r="J4" t="s">
-        <v>66</v>
-      </c>
-      <c r="K4" t="s">
-        <v>67</v>
       </c>
       <c r="L4" t="s">
         <v>68</v>
@@ -3735,34 +3735,34 @@
         <v>47</v>
       </c>
       <c r="B5">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="C5">
         <v>10</v>
       </c>
       <c r="D5">
-        <v>19</v>
+        <v>0.5</v>
       </c>
       <c r="E5">
-        <v>0</v>
+        <v>0.543449827676898</v>
       </c>
       <c r="F5">
-        <v>0.5090463582503281</v>
+        <v>16</v>
       </c>
       <c r="G5">
-        <v>9</v>
+        <v>850</v>
       </c>
       <c r="H5">
+        <v>6</v>
+      </c>
+      <c r="I5" t="s">
+        <v>66</v>
+      </c>
+      <c r="J5" t="s">
+        <v>67</v>
+      </c>
+      <c r="K5">
         <v>7</v>
-      </c>
-      <c r="I5">
-        <v>850</v>
-      </c>
-      <c r="J5" t="s">
-        <v>66</v>
-      </c>
-      <c r="K5" t="s">
-        <v>67</v>
       </c>
       <c r="L5" t="s">
         <v>68</v>
@@ -3776,34 +3776,34 @@
         <v>48</v>
       </c>
       <c r="B6">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="C6">
         <v>2</v>
       </c>
       <c r="D6">
-        <v>8</v>
+        <v>0.5</v>
       </c>
       <c r="E6">
-        <v>0</v>
+        <v>0.5132814161592334</v>
       </c>
       <c r="F6">
-        <v>0.5680755100177511</v>
+        <v>5</v>
       </c>
       <c r="G6">
-        <v>6</v>
+        <v>850</v>
       </c>
       <c r="H6">
+        <v>3</v>
+      </c>
+      <c r="I6" t="s">
+        <v>66</v>
+      </c>
+      <c r="J6" t="s">
+        <v>67</v>
+      </c>
+      <c r="K6">
         <v>7</v>
-      </c>
-      <c r="I6">
-        <v>850</v>
-      </c>
-      <c r="J6" t="s">
-        <v>66</v>
-      </c>
-      <c r="K6" t="s">
-        <v>67</v>
       </c>
       <c r="L6" t="s">
         <v>68</v>
@@ -3817,34 +3817,34 @@
         <v>49</v>
       </c>
       <c r="B7">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="C7">
         <v>2</v>
       </c>
       <c r="D7">
+        <v>0.5</v>
+      </c>
+      <c r="E7">
+        <v>0.7931340478672524</v>
+      </c>
+      <c r="F7">
         <v>12</v>
       </c>
-      <c r="E7">
-        <v>0</v>
-      </c>
-      <c r="F7">
-        <v>0.6641847388942878</v>
-      </c>
       <c r="G7">
+        <v>850</v>
+      </c>
+      <c r="H7">
         <v>10</v>
       </c>
-      <c r="H7">
+      <c r="I7" t="s">
+        <v>66</v>
+      </c>
+      <c r="J7" t="s">
+        <v>67</v>
+      </c>
+      <c r="K7">
         <v>7</v>
-      </c>
-      <c r="I7">
-        <v>850</v>
-      </c>
-      <c r="J7" t="s">
-        <v>66</v>
-      </c>
-      <c r="K7" t="s">
-        <v>67</v>
       </c>
       <c r="L7" t="s">
         <v>68</v>
@@ -3858,34 +3858,34 @@
         <v>50</v>
       </c>
       <c r="B8">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="C8">
         <v>2</v>
       </c>
       <c r="D8">
-        <v>8</v>
+        <v>0.5</v>
       </c>
       <c r="E8">
-        <v>0</v>
+        <v>0.5731919433352042</v>
       </c>
       <c r="F8">
-        <v>0.5134268788006108</v>
+        <v>6</v>
       </c>
       <c r="G8">
-        <v>6</v>
+        <v>850</v>
       </c>
       <c r="H8">
+        <v>4</v>
+      </c>
+      <c r="I8" t="s">
+        <v>66</v>
+      </c>
+      <c r="J8" t="s">
+        <v>67</v>
+      </c>
+      <c r="K8">
         <v>7</v>
-      </c>
-      <c r="I8">
-        <v>850</v>
-      </c>
-      <c r="J8" t="s">
-        <v>66</v>
-      </c>
-      <c r="K8" t="s">
-        <v>67</v>
       </c>
       <c r="L8" t="s">
         <v>68</v>
@@ -3899,34 +3899,34 @@
         <v>51</v>
       </c>
       <c r="B9">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="C9">
         <v>3</v>
       </c>
       <c r="D9">
-        <v>8</v>
+        <v>0.5</v>
       </c>
       <c r="E9">
-        <v>0</v>
+        <v>0.5994169164589179</v>
       </c>
       <c r="F9">
-        <v>0.5253577438410075</v>
+        <v>6</v>
       </c>
       <c r="G9">
-        <v>5</v>
+        <v>850</v>
       </c>
       <c r="H9">
+        <v>3</v>
+      </c>
+      <c r="I9" t="s">
+        <v>66</v>
+      </c>
+      <c r="J9" t="s">
+        <v>67</v>
+      </c>
+      <c r="K9">
         <v>7</v>
-      </c>
-      <c r="I9">
-        <v>850</v>
-      </c>
-      <c r="J9" t="s">
-        <v>66</v>
-      </c>
-      <c r="K9" t="s">
-        <v>67</v>
       </c>
       <c r="L9" t="s">
         <v>68</v>
@@ -3940,34 +3940,34 @@
         <v>52</v>
       </c>
       <c r="B10">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="C10">
         <v>3</v>
       </c>
       <c r="D10">
+        <v>0.5</v>
+      </c>
+      <c r="E10">
+        <v>0.5840617082096812</v>
+      </c>
+      <c r="F10">
+        <v>6</v>
+      </c>
+      <c r="G10">
+        <v>850</v>
+      </c>
+      <c r="H10">
+        <v>3</v>
+      </c>
+      <c r="I10" t="s">
+        <v>66</v>
+      </c>
+      <c r="J10" t="s">
+        <v>67</v>
+      </c>
+      <c r="K10">
         <v>7</v>
-      </c>
-      <c r="E10">
-        <v>0</v>
-      </c>
-      <c r="F10">
-        <v>0.5103995045098035</v>
-      </c>
-      <c r="G10">
-        <v>4</v>
-      </c>
-      <c r="H10">
-        <v>7</v>
-      </c>
-      <c r="I10">
-        <v>850</v>
-      </c>
-      <c r="J10" t="s">
-        <v>66</v>
-      </c>
-      <c r="K10" t="s">
-        <v>67</v>
       </c>
       <c r="L10" t="s">
         <v>68</v>
@@ -3981,34 +3981,34 @@
         <v>53</v>
       </c>
       <c r="B11">
+        <v>0</v>
+      </c>
+      <c r="C11">
+        <v>3</v>
+      </c>
+      <c r="D11">
         <v>0.5</v>
       </c>
-      <c r="C11">
-        <v>2</v>
-      </c>
-      <c r="D11">
-        <v>8</v>
-      </c>
       <c r="E11">
-        <v>0</v>
+        <v>0.5168455534400936</v>
       </c>
       <c r="F11">
-        <v>0.50053243059397</v>
+        <v>7</v>
       </c>
       <c r="G11">
-        <v>6</v>
+        <v>850</v>
       </c>
       <c r="H11">
+        <v>4</v>
+      </c>
+      <c r="I11" t="s">
+        <v>66</v>
+      </c>
+      <c r="J11" t="s">
+        <v>67</v>
+      </c>
+      <c r="K11">
         <v>7</v>
-      </c>
-      <c r="I11">
-        <v>850</v>
-      </c>
-      <c r="J11" t="s">
-        <v>66</v>
-      </c>
-      <c r="K11" t="s">
-        <v>67</v>
       </c>
       <c r="L11" t="s">
         <v>68</v>
@@ -4076,34 +4076,34 @@
         <v>44</v>
       </c>
       <c r="B2">
-        <v>0.7</v>
+        <v>0</v>
       </c>
       <c r="C2">
         <v>11</v>
       </c>
       <c r="D2">
-        <v>23</v>
+        <v>0.7</v>
       </c>
       <c r="E2">
-        <v>0</v>
+        <v>0.9273088314280906</v>
       </c>
       <c r="F2">
-        <v>0.7193853202433411</v>
+        <v>21</v>
       </c>
       <c r="G2">
-        <v>12</v>
+        <v>850</v>
       </c>
       <c r="H2">
+        <v>10</v>
+      </c>
+      <c r="I2" t="s">
+        <v>66</v>
+      </c>
+      <c r="J2" t="s">
+        <v>67</v>
+      </c>
+      <c r="K2">
         <v>7</v>
-      </c>
-      <c r="I2">
-        <v>850</v>
-      </c>
-      <c r="J2" t="s">
-        <v>66</v>
-      </c>
-      <c r="K2" t="s">
-        <v>67</v>
       </c>
       <c r="L2" t="s">
         <v>68</v>
@@ -4117,34 +4117,34 @@
         <v>45</v>
       </c>
       <c r="B3">
-        <v>0.7</v>
+        <v>0</v>
       </c>
       <c r="C3">
         <v>2</v>
       </c>
       <c r="D3">
-        <v>11</v>
+        <v>0.7</v>
       </c>
       <c r="E3">
-        <v>0</v>
+        <v>0.7592855927072751</v>
       </c>
       <c r="F3">
-        <v>0.7394484151744725</v>
+        <v>8</v>
       </c>
       <c r="G3">
-        <v>9</v>
+        <v>850</v>
       </c>
       <c r="H3">
+        <v>6</v>
+      </c>
+      <c r="I3" t="s">
+        <v>66</v>
+      </c>
+      <c r="J3" t="s">
+        <v>67</v>
+      </c>
+      <c r="K3">
         <v>7</v>
-      </c>
-      <c r="I3">
-        <v>850</v>
-      </c>
-      <c r="J3" t="s">
-        <v>66</v>
-      </c>
-      <c r="K3" t="s">
-        <v>67</v>
       </c>
       <c r="L3" t="s">
         <v>68</v>
@@ -4158,34 +4158,34 @@
         <v>46</v>
       </c>
       <c r="B4">
-        <v>0.7</v>
+        <v>0</v>
       </c>
       <c r="C4">
         <v>2</v>
       </c>
       <c r="D4">
-        <v>13</v>
+        <v>0.7</v>
       </c>
       <c r="E4">
-        <v>0</v>
+        <v>0.8042329362630152</v>
       </c>
       <c r="F4">
-        <v>0.7470876353755533</v>
+        <v>12</v>
       </c>
       <c r="G4">
-        <v>11</v>
+        <v>850</v>
       </c>
       <c r="H4">
+        <v>10</v>
+      </c>
+      <c r="I4" t="s">
+        <v>66</v>
+      </c>
+      <c r="J4" t="s">
+        <v>67</v>
+      </c>
+      <c r="K4">
         <v>7</v>
-      </c>
-      <c r="I4">
-        <v>850</v>
-      </c>
-      <c r="J4" t="s">
-        <v>66</v>
-      </c>
-      <c r="K4" t="s">
-        <v>67</v>
       </c>
       <c r="L4" t="s">
         <v>68</v>
@@ -4199,34 +4199,34 @@
         <v>47</v>
       </c>
       <c r="B5">
-        <v>0.7</v>
+        <v>0</v>
       </c>
       <c r="C5">
         <v>10</v>
       </c>
       <c r="D5">
-        <v>21</v>
+        <v>0.7</v>
       </c>
       <c r="E5">
-        <v>0</v>
+        <v>0.8942237497872942</v>
       </c>
       <c r="F5">
-        <v>0.7523082791121576</v>
+        <v>20</v>
       </c>
       <c r="G5">
-        <v>11</v>
+        <v>850</v>
       </c>
       <c r="H5">
+        <v>10</v>
+      </c>
+      <c r="I5" t="s">
+        <v>66</v>
+      </c>
+      <c r="J5" t="s">
+        <v>67</v>
+      </c>
+      <c r="K5">
         <v>7</v>
-      </c>
-      <c r="I5">
-        <v>850</v>
-      </c>
-      <c r="J5" t="s">
-        <v>66</v>
-      </c>
-      <c r="K5" t="s">
-        <v>67</v>
       </c>
       <c r="L5" t="s">
         <v>68</v>
@@ -4240,34 +4240,34 @@
         <v>48</v>
       </c>
       <c r="B6">
-        <v>0.7</v>
+        <v>0</v>
       </c>
       <c r="C6">
         <v>2</v>
       </c>
       <c r="D6">
+        <v>0.7</v>
+      </c>
+      <c r="E6">
+        <v>0.8079041381336406</v>
+      </c>
+      <c r="F6">
         <v>11</v>
       </c>
-      <c r="E6">
-        <v>0</v>
-      </c>
-      <c r="F6">
-        <v>0.7204935139717582</v>
-      </c>
       <c r="G6">
+        <v>850</v>
+      </c>
+      <c r="H6">
         <v>9</v>
       </c>
-      <c r="H6">
+      <c r="I6" t="s">
+        <v>66</v>
+      </c>
+      <c r="J6" t="s">
+        <v>67</v>
+      </c>
+      <c r="K6">
         <v>7</v>
-      </c>
-      <c r="I6">
-        <v>850</v>
-      </c>
-      <c r="J6" t="s">
-        <v>66</v>
-      </c>
-      <c r="K6" t="s">
-        <v>67</v>
       </c>
       <c r="L6" t="s">
         <v>68</v>
@@ -4281,34 +4281,34 @@
         <v>49</v>
       </c>
       <c r="B7">
-        <v>0.7</v>
+        <v>0</v>
       </c>
       <c r="C7">
         <v>2</v>
       </c>
       <c r="D7">
-        <v>13</v>
+        <v>0.7</v>
       </c>
       <c r="E7">
-        <v>0</v>
+        <v>0.7931340478672524</v>
       </c>
       <c r="F7">
-        <v>0.7015484209532692</v>
+        <v>12</v>
       </c>
       <c r="G7">
-        <v>11</v>
+        <v>850</v>
       </c>
       <c r="H7">
+        <v>10</v>
+      </c>
+      <c r="I7" t="s">
+        <v>66</v>
+      </c>
+      <c r="J7" t="s">
+        <v>67</v>
+      </c>
+      <c r="K7">
         <v>7</v>
-      </c>
-      <c r="I7">
-        <v>850</v>
-      </c>
-      <c r="J7" t="s">
-        <v>66</v>
-      </c>
-      <c r="K7" t="s">
-        <v>67</v>
       </c>
       <c r="L7" t="s">
         <v>68</v>
@@ -4322,34 +4322,34 @@
         <v>50</v>
       </c>
       <c r="B8">
-        <v>0.7</v>
+        <v>0</v>
       </c>
       <c r="C8">
         <v>2</v>
       </c>
       <c r="D8">
-        <v>14</v>
+        <v>0.7</v>
       </c>
       <c r="E8">
-        <v>0</v>
+        <v>0.7242446782968281</v>
       </c>
       <c r="F8">
-        <v>0.7555723904841214</v>
+        <v>12</v>
       </c>
       <c r="G8">
-        <v>12</v>
+        <v>850</v>
       </c>
       <c r="H8">
+        <v>10</v>
+      </c>
+      <c r="I8" t="s">
+        <v>66</v>
+      </c>
+      <c r="J8" t="s">
+        <v>67</v>
+      </c>
+      <c r="K8">
         <v>7</v>
-      </c>
-      <c r="I8">
-        <v>850</v>
-      </c>
-      <c r="J8" t="s">
-        <v>66</v>
-      </c>
-      <c r="K8" t="s">
-        <v>67</v>
       </c>
       <c r="L8" t="s">
         <v>68</v>
@@ -4363,34 +4363,34 @@
         <v>51</v>
       </c>
       <c r="B9">
-        <v>0.7</v>
+        <v>0</v>
       </c>
       <c r="C9">
         <v>3</v>
       </c>
       <c r="D9">
-        <v>14</v>
+        <v>0.7</v>
       </c>
       <c r="E9">
-        <v>0</v>
+        <v>0.7107853641712149</v>
       </c>
       <c r="F9">
-        <v>0.7593768728158542</v>
+        <v>8</v>
       </c>
       <c r="G9">
-        <v>11</v>
+        <v>850</v>
       </c>
       <c r="H9">
+        <v>5</v>
+      </c>
+      <c r="I9" t="s">
+        <v>66</v>
+      </c>
+      <c r="J9" t="s">
+        <v>67</v>
+      </c>
+      <c r="K9">
         <v>7</v>
-      </c>
-      <c r="I9">
-        <v>850</v>
-      </c>
-      <c r="J9" t="s">
-        <v>66</v>
-      </c>
-      <c r="K9" t="s">
-        <v>67</v>
       </c>
       <c r="L9" t="s">
         <v>68</v>
@@ -4404,34 +4404,34 @@
         <v>52</v>
       </c>
       <c r="B10">
-        <v>0.7</v>
+        <v>0</v>
       </c>
       <c r="C10">
         <v>3</v>
       </c>
       <c r="D10">
-        <v>13</v>
+        <v>0.7</v>
       </c>
       <c r="E10">
-        <v>0</v>
+        <v>0.7141863440356777</v>
       </c>
       <c r="F10">
-        <v>0.7147477149561076</v>
+        <v>11</v>
       </c>
       <c r="G10">
-        <v>10</v>
+        <v>850</v>
       </c>
       <c r="H10">
+        <v>8</v>
+      </c>
+      <c r="I10" t="s">
+        <v>66</v>
+      </c>
+      <c r="J10" t="s">
+        <v>67</v>
+      </c>
+      <c r="K10">
         <v>7</v>
-      </c>
-      <c r="I10">
-        <v>850</v>
-      </c>
-      <c r="J10" t="s">
-        <v>66</v>
-      </c>
-      <c r="K10" t="s">
-        <v>67</v>
       </c>
       <c r="L10" t="s">
         <v>68</v>
@@ -4445,34 +4445,34 @@
         <v>53</v>
       </c>
       <c r="B11">
+        <v>0</v>
+      </c>
+      <c r="C11">
+        <v>3</v>
+      </c>
+      <c r="D11">
         <v>0.7</v>
       </c>
-      <c r="C11">
-        <v>2</v>
-      </c>
-      <c r="D11">
-        <v>14</v>
-      </c>
       <c r="E11">
-        <v>0</v>
+        <v>0.7312557601832345</v>
       </c>
       <c r="F11">
-        <v>0.827080417442438</v>
+        <v>12</v>
       </c>
       <c r="G11">
-        <v>12</v>
+        <v>850</v>
       </c>
       <c r="H11">
+        <v>9</v>
+      </c>
+      <c r="I11" t="s">
+        <v>66</v>
+      </c>
+      <c r="J11" t="s">
+        <v>67</v>
+      </c>
+      <c r="K11">
         <v>7</v>
-      </c>
-      <c r="I11">
-        <v>850</v>
-      </c>
-      <c r="J11" t="s">
-        <v>66</v>
-      </c>
-      <c r="K11" t="s">
-        <v>67</v>
       </c>
       <c r="L11" t="s">
         <v>68</v>
@@ -4540,34 +4540,34 @@
         <v>44</v>
       </c>
       <c r="B2">
-        <v>0.8</v>
+        <v>0</v>
       </c>
       <c r="C2">
         <v>11</v>
       </c>
       <c r="D2">
-        <v>28</v>
+        <v>0.8</v>
       </c>
       <c r="E2">
-        <v>0</v>
+        <v>0.9273088314280906</v>
       </c>
       <c r="F2">
-        <v>0.805661923358128</v>
+        <v>21</v>
       </c>
       <c r="G2">
-        <v>17</v>
+        <v>850</v>
       </c>
       <c r="H2">
+        <v>10</v>
+      </c>
+      <c r="I2" t="s">
+        <v>66</v>
+      </c>
+      <c r="J2" t="s">
+        <v>67</v>
+      </c>
+      <c r="K2">
         <v>7</v>
-      </c>
-      <c r="I2">
-        <v>850</v>
-      </c>
-      <c r="J2" t="s">
-        <v>66</v>
-      </c>
-      <c r="K2" t="s">
-        <v>67</v>
       </c>
       <c r="L2" t="s">
         <v>68</v>
@@ -4581,34 +4581,34 @@
         <v>45</v>
       </c>
       <c r="B3">
-        <v>0.8</v>
+        <v>0</v>
       </c>
       <c r="C3">
         <v>2</v>
       </c>
       <c r="D3">
-        <v>12</v>
+        <v>0.8</v>
       </c>
       <c r="E3">
-        <v>0</v>
+        <v>0.8267866902526328</v>
       </c>
       <c r="F3">
-        <v>0.8881812304092271</v>
+        <v>11</v>
       </c>
       <c r="G3">
-        <v>10</v>
+        <v>850</v>
       </c>
       <c r="H3">
+        <v>9</v>
+      </c>
+      <c r="I3" t="s">
+        <v>66</v>
+      </c>
+      <c r="J3" t="s">
+        <v>67</v>
+      </c>
+      <c r="K3">
         <v>7</v>
-      </c>
-      <c r="I3">
-        <v>850</v>
-      </c>
-      <c r="J3" t="s">
-        <v>66</v>
-      </c>
-      <c r="K3" t="s">
-        <v>67</v>
       </c>
       <c r="L3" t="s">
         <v>68</v>
@@ -4622,34 +4622,34 @@
         <v>46</v>
       </c>
       <c r="B4">
-        <v>0.8</v>
+        <v>0</v>
       </c>
       <c r="C4">
         <v>2</v>
       </c>
       <c r="D4">
-        <v>22</v>
+        <v>0.8</v>
       </c>
       <c r="E4">
-        <v>0</v>
+        <v>0.8042329362630152</v>
       </c>
       <c r="F4">
-        <v>0.809819309653008</v>
+        <v>12</v>
       </c>
       <c r="G4">
-        <v>20</v>
+        <v>850</v>
       </c>
       <c r="H4">
+        <v>10</v>
+      </c>
+      <c r="I4" t="s">
+        <v>66</v>
+      </c>
+      <c r="J4" t="s">
+        <v>67</v>
+      </c>
+      <c r="K4">
         <v>7</v>
-      </c>
-      <c r="I4">
-        <v>850</v>
-      </c>
-      <c r="J4" t="s">
-        <v>66</v>
-      </c>
-      <c r="K4" t="s">
-        <v>67</v>
       </c>
       <c r="L4" t="s">
         <v>68</v>
@@ -4663,34 +4663,34 @@
         <v>47</v>
       </c>
       <c r="B5">
-        <v>0.8</v>
+        <v>0</v>
       </c>
       <c r="C5">
         <v>10</v>
       </c>
       <c r="D5">
-        <v>26</v>
+        <v>0.8</v>
       </c>
       <c r="E5">
-        <v>0</v>
+        <v>0.8942237497872942</v>
       </c>
       <c r="F5">
-        <v>0.8066572843298049</v>
+        <v>20</v>
       </c>
       <c r="G5">
-        <v>16</v>
+        <v>850</v>
       </c>
       <c r="H5">
+        <v>10</v>
+      </c>
+      <c r="I5" t="s">
+        <v>66</v>
+      </c>
+      <c r="J5" t="s">
+        <v>67</v>
+      </c>
+      <c r="K5">
         <v>7</v>
-      </c>
-      <c r="I5">
-        <v>850</v>
-      </c>
-      <c r="J5" t="s">
-        <v>66</v>
-      </c>
-      <c r="K5" t="s">
-        <v>67</v>
       </c>
       <c r="L5" t="s">
         <v>68</v>
@@ -4704,34 +4704,34 @@
         <v>48</v>
       </c>
       <c r="B6">
-        <v>0.8</v>
+        <v>0</v>
       </c>
       <c r="C6">
         <v>2</v>
       </c>
       <c r="D6">
-        <v>12</v>
+        <v>0.8</v>
       </c>
       <c r="E6">
-        <v>0</v>
+        <v>0.8079041381336406</v>
       </c>
       <c r="F6">
-        <v>0.8101340367054051</v>
+        <v>11</v>
       </c>
       <c r="G6">
-        <v>10</v>
+        <v>850</v>
       </c>
       <c r="H6">
+        <v>9</v>
+      </c>
+      <c r="I6" t="s">
+        <v>66</v>
+      </c>
+      <c r="J6" t="s">
+        <v>67</v>
+      </c>
+      <c r="K6">
         <v>7</v>
-      </c>
-      <c r="I6">
-        <v>850</v>
-      </c>
-      <c r="J6" t="s">
-        <v>66</v>
-      </c>
-      <c r="K6" t="s">
-        <v>67</v>
       </c>
       <c r="L6" t="s">
         <v>68</v>
@@ -4745,34 +4745,34 @@
         <v>49</v>
       </c>
       <c r="B7">
-        <v>0.8</v>
+        <v>0</v>
       </c>
       <c r="C7">
         <v>2</v>
       </c>
       <c r="D7">
-        <v>19</v>
+        <v>0.8</v>
       </c>
       <c r="E7">
-        <v>0</v>
+        <v>0.8078216105794798</v>
       </c>
       <c r="F7">
-        <v>0.8021107276968654</v>
+        <v>13</v>
       </c>
       <c r="G7">
-        <v>17</v>
+        <v>850</v>
       </c>
       <c r="H7">
+        <v>11</v>
+      </c>
+      <c r="I7" t="s">
+        <v>66</v>
+      </c>
+      <c r="J7" t="s">
+        <v>67</v>
+      </c>
+      <c r="K7">
         <v>7</v>
-      </c>
-      <c r="I7">
-        <v>850</v>
-      </c>
-      <c r="J7" t="s">
-        <v>66</v>
-      </c>
-      <c r="K7" t="s">
-        <v>67</v>
       </c>
       <c r="L7" t="s">
         <v>68</v>
@@ -4786,34 +4786,34 @@
         <v>50</v>
       </c>
       <c r="B8">
-        <v>0.8</v>
+        <v>0</v>
       </c>
       <c r="C8">
         <v>2</v>
       </c>
       <c r="D8">
-        <v>22</v>
+        <v>0.8</v>
       </c>
       <c r="E8">
-        <v>0</v>
+        <v>0.8377947629825536</v>
       </c>
       <c r="F8">
-        <v>0.8022729556956948</v>
+        <v>14</v>
       </c>
       <c r="G8">
-        <v>20</v>
+        <v>850</v>
       </c>
       <c r="H8">
+        <v>12</v>
+      </c>
+      <c r="I8" t="s">
+        <v>66</v>
+      </c>
+      <c r="J8" t="s">
+        <v>67</v>
+      </c>
+      <c r="K8">
         <v>7</v>
-      </c>
-      <c r="I8">
-        <v>850</v>
-      </c>
-      <c r="J8" t="s">
-        <v>66</v>
-      </c>
-      <c r="K8" t="s">
-        <v>67</v>
       </c>
       <c r="L8" t="s">
         <v>68</v>
@@ -4827,34 +4827,34 @@
         <v>51</v>
       </c>
       <c r="B9">
-        <v>0.8</v>
+        <v>0</v>
       </c>
       <c r="C9">
         <v>3</v>
       </c>
       <c r="D9">
-        <v>23</v>
+        <v>0.8</v>
       </c>
       <c r="E9">
-        <v>0</v>
+        <v>0.8003134080727146</v>
       </c>
       <c r="F9">
-        <v>0.8434040787033336</v>
+        <v>12</v>
       </c>
       <c r="G9">
-        <v>20</v>
+        <v>850</v>
       </c>
       <c r="H9">
+        <v>9</v>
+      </c>
+      <c r="I9" t="s">
+        <v>66</v>
+      </c>
+      <c r="J9" t="s">
+        <v>67</v>
+      </c>
+      <c r="K9">
         <v>7</v>
-      </c>
-      <c r="I9">
-        <v>850</v>
-      </c>
-      <c r="J9" t="s">
-        <v>66</v>
-      </c>
-      <c r="K9" t="s">
-        <v>67</v>
       </c>
       <c r="L9" t="s">
         <v>68</v>
@@ -4868,34 +4868,34 @@
         <v>52</v>
       </c>
       <c r="B10">
-        <v>0.8</v>
+        <v>0</v>
       </c>
       <c r="C10">
         <v>3</v>
       </c>
       <c r="D10">
-        <v>14</v>
+        <v>0.8</v>
       </c>
       <c r="E10">
-        <v>0</v>
+        <v>0.80145657733401</v>
       </c>
       <c r="F10">
-        <v>0.8197298856491756</v>
+        <v>13</v>
       </c>
       <c r="G10">
-        <v>11</v>
+        <v>850</v>
       </c>
       <c r="H10">
+        <v>10</v>
+      </c>
+      <c r="I10" t="s">
+        <v>66</v>
+      </c>
+      <c r="J10" t="s">
+        <v>67</v>
+      </c>
+      <c r="K10">
         <v>7</v>
-      </c>
-      <c r="I10">
-        <v>850</v>
-      </c>
-      <c r="J10" t="s">
-        <v>66</v>
-      </c>
-      <c r="K10" t="s">
-        <v>67</v>
       </c>
       <c r="L10" t="s">
         <v>68</v>
@@ -4909,34 +4909,34 @@
         <v>53</v>
       </c>
       <c r="B11">
+        <v>0</v>
+      </c>
+      <c r="C11">
+        <v>3</v>
+      </c>
+      <c r="D11">
         <v>0.8</v>
       </c>
-      <c r="C11">
-        <v>2</v>
-      </c>
-      <c r="D11">
+      <c r="E11">
+        <v>0.9262399692636585</v>
+      </c>
+      <c r="F11">
         <v>14</v>
       </c>
-      <c r="E11">
-        <v>0</v>
-      </c>
-      <c r="F11">
-        <v>0.827080417442438</v>
-      </c>
       <c r="G11">
-        <v>12</v>
+        <v>850</v>
       </c>
       <c r="H11">
+        <v>11</v>
+      </c>
+      <c r="I11" t="s">
+        <v>66</v>
+      </c>
+      <c r="J11" t="s">
+        <v>67</v>
+      </c>
+      <c r="K11">
         <v>7</v>
-      </c>
-      <c r="I11">
-        <v>850</v>
-      </c>
-      <c r="J11" t="s">
-        <v>66</v>
-      </c>
-      <c r="K11" t="s">
-        <v>67</v>
       </c>
       <c r="L11" t="s">
         <v>68</v>
@@ -5004,34 +5004,34 @@
         <v>44</v>
       </c>
       <c r="B2">
-        <v>0.9</v>
+        <v>0</v>
       </c>
       <c r="C2">
         <v>11</v>
       </c>
       <c r="D2">
-        <v>33</v>
+        <v>0.9</v>
       </c>
       <c r="E2">
-        <v>0</v>
+        <v>0.9273088314280906</v>
       </c>
       <c r="F2">
-        <v>0.9021645242498544</v>
+        <v>21</v>
       </c>
       <c r="G2">
-        <v>22</v>
+        <v>850</v>
       </c>
       <c r="H2">
+        <v>10</v>
+      </c>
+      <c r="I2" t="s">
+        <v>66</v>
+      </c>
+      <c r="J2" t="s">
+        <v>67</v>
+      </c>
+      <c r="K2">
         <v>7</v>
-      </c>
-      <c r="I2">
-        <v>850</v>
-      </c>
-      <c r="J2" t="s">
-        <v>66</v>
-      </c>
-      <c r="K2" t="s">
-        <v>67</v>
       </c>
       <c r="L2" t="s">
         <v>68</v>
@@ -5045,34 +5045,34 @@
         <v>45</v>
       </c>
       <c r="B3">
-        <v>0.9</v>
+        <v>0</v>
       </c>
       <c r="C3">
         <v>2</v>
       </c>
       <c r="D3">
-        <v>13</v>
+        <v>0.9</v>
       </c>
       <c r="E3">
-        <v>0</v>
+        <v>0.9992402489855858</v>
       </c>
       <c r="F3">
-        <v>0.9123222662013355</v>
+        <v>12</v>
       </c>
       <c r="G3">
-        <v>11</v>
+        <v>850</v>
       </c>
       <c r="H3">
+        <v>10</v>
+      </c>
+      <c r="I3" t="s">
+        <v>66</v>
+      </c>
+      <c r="J3" t="s">
+        <v>67</v>
+      </c>
+      <c r="K3">
         <v>7</v>
-      </c>
-      <c r="I3">
-        <v>850</v>
-      </c>
-      <c r="J3" t="s">
-        <v>66</v>
-      </c>
-      <c r="K3" t="s">
-        <v>67</v>
       </c>
       <c r="L3" t="s">
         <v>68</v>
@@ -5086,34 +5086,34 @@
         <v>46</v>
       </c>
       <c r="B4">
-        <v>0.9</v>
+        <v>0</v>
       </c>
       <c r="C4">
         <v>2</v>
       </c>
       <c r="D4">
+        <v>0.9</v>
+      </c>
+      <c r="E4">
+        <v>0.9652651214240677</v>
+      </c>
+      <c r="F4">
         <v>27</v>
       </c>
-      <c r="E4">
-        <v>0</v>
-      </c>
-      <c r="F4">
-        <v>0.9354422057783257</v>
-      </c>
       <c r="G4">
+        <v>850</v>
+      </c>
+      <c r="H4">
         <v>25</v>
       </c>
-      <c r="H4">
+      <c r="I4" t="s">
+        <v>66</v>
+      </c>
+      <c r="J4" t="s">
+        <v>67</v>
+      </c>
+      <c r="K4">
         <v>7</v>
-      </c>
-      <c r="I4">
-        <v>850</v>
-      </c>
-      <c r="J4" t="s">
-        <v>66</v>
-      </c>
-      <c r="K4" t="s">
-        <v>67</v>
       </c>
       <c r="L4" t="s">
         <v>68</v>
@@ -5127,34 +5127,34 @@
         <v>47</v>
       </c>
       <c r="B5">
-        <v>0.9</v>
+        <v>0</v>
       </c>
       <c r="C5">
         <v>10</v>
       </c>
       <c r="D5">
-        <v>31</v>
+        <v>0.9</v>
       </c>
       <c r="E5">
-        <v>0</v>
+        <v>0.9503332694519901</v>
       </c>
       <c r="F5">
-        <v>0.914769657681745</v>
+        <v>21</v>
       </c>
       <c r="G5">
-        <v>21</v>
+        <v>850</v>
       </c>
       <c r="H5">
+        <v>11</v>
+      </c>
+      <c r="I5" t="s">
+        <v>66</v>
+      </c>
+      <c r="J5" t="s">
+        <v>67</v>
+      </c>
+      <c r="K5">
         <v>7</v>
-      </c>
-      <c r="I5">
-        <v>850</v>
-      </c>
-      <c r="J5" t="s">
-        <v>66</v>
-      </c>
-      <c r="K5" t="s">
-        <v>67</v>
       </c>
       <c r="L5" t="s">
         <v>68</v>
@@ -5168,34 +5168,34 @@
         <v>48</v>
       </c>
       <c r="B6">
-        <v>0.9</v>
+        <v>0</v>
       </c>
       <c r="C6">
         <v>2</v>
       </c>
       <c r="D6">
-        <v>22</v>
+        <v>0.9</v>
       </c>
       <c r="E6">
-        <v>0</v>
+        <v>0.9051840651973587</v>
       </c>
       <c r="F6">
-        <v>0.90295387196446</v>
+        <v>12</v>
       </c>
       <c r="G6">
-        <v>20</v>
+        <v>850</v>
       </c>
       <c r="H6">
+        <v>10</v>
+      </c>
+      <c r="I6" t="s">
+        <v>66</v>
+      </c>
+      <c r="J6" t="s">
+        <v>67</v>
+      </c>
+      <c r="K6">
         <v>7</v>
-      </c>
-      <c r="I6">
-        <v>850</v>
-      </c>
-      <c r="J6" t="s">
-        <v>66</v>
-      </c>
-      <c r="K6" t="s">
-        <v>67</v>
       </c>
       <c r="L6" t="s">
         <v>68</v>
@@ -5209,34 +5209,34 @@
         <v>49</v>
       </c>
       <c r="B7">
-        <v>0.9</v>
+        <v>0</v>
       </c>
       <c r="C7">
         <v>2</v>
       </c>
       <c r="D7">
+        <v>0.9</v>
+      </c>
+      <c r="E7">
+        <v>1</v>
+      </c>
+      <c r="F7">
         <v>22</v>
       </c>
-      <c r="E7">
-        <v>0</v>
-      </c>
-      <c r="F7">
-        <v>0.902781410334772</v>
-      </c>
       <c r="G7">
+        <v>850</v>
+      </c>
+      <c r="H7">
         <v>20</v>
       </c>
-      <c r="H7">
+      <c r="I7" t="s">
+        <v>66</v>
+      </c>
+      <c r="J7" t="s">
+        <v>67</v>
+      </c>
+      <c r="K7">
         <v>7</v>
-      </c>
-      <c r="I7">
-        <v>850</v>
-      </c>
-      <c r="J7" t="s">
-        <v>66</v>
-      </c>
-      <c r="K7" t="s">
-        <v>67</v>
       </c>
       <c r="L7" t="s">
         <v>68</v>
@@ -5250,34 +5250,34 @@
         <v>50</v>
       </c>
       <c r="B8">
-        <v>0.9</v>
+        <v>0</v>
       </c>
       <c r="C8">
         <v>2</v>
       </c>
       <c r="D8">
-        <v>28</v>
+        <v>0.9</v>
       </c>
       <c r="E8">
-        <v>0</v>
+        <v>0.9087328591891912</v>
       </c>
       <c r="F8">
-        <v>0.966286369087119</v>
+        <v>27</v>
       </c>
       <c r="G8">
-        <v>26</v>
+        <v>850</v>
       </c>
       <c r="H8">
+        <v>25</v>
+      </c>
+      <c r="I8" t="s">
+        <v>66</v>
+      </c>
+      <c r="J8" t="s">
+        <v>67</v>
+      </c>
+      <c r="K8">
         <v>7</v>
-      </c>
-      <c r="I8">
-        <v>850</v>
-      </c>
-      <c r="J8" t="s">
-        <v>66</v>
-      </c>
-      <c r="K8" t="s">
-        <v>67</v>
       </c>
       <c r="L8" t="s">
         <v>68</v>
@@ -5291,34 +5291,34 @@
         <v>51</v>
       </c>
       <c r="B9">
-        <v>0.9</v>
+        <v>0</v>
       </c>
       <c r="C9">
         <v>3</v>
       </c>
       <c r="D9">
-        <v>28</v>
+        <v>0.9</v>
       </c>
       <c r="E9">
-        <v>0</v>
+        <v>0.9020156181299314</v>
       </c>
       <c r="F9">
-        <v>0.9273546094627928</v>
+        <v>14</v>
       </c>
       <c r="G9">
-        <v>25</v>
+        <v>850</v>
       </c>
       <c r="H9">
+        <v>11</v>
+      </c>
+      <c r="I9" t="s">
+        <v>66</v>
+      </c>
+      <c r="J9" t="s">
+        <v>67</v>
+      </c>
+      <c r="K9">
         <v>7</v>
-      </c>
-      <c r="I9">
-        <v>850</v>
-      </c>
-      <c r="J9" t="s">
-        <v>66</v>
-      </c>
-      <c r="K9" t="s">
-        <v>67</v>
       </c>
       <c r="L9" t="s">
         <v>68</v>
@@ -5332,34 +5332,34 @@
         <v>52</v>
       </c>
       <c r="B10">
-        <v>0.9</v>
+        <v>0</v>
       </c>
       <c r="C10">
         <v>3</v>
       </c>
       <c r="D10">
-        <v>24</v>
+        <v>0.9</v>
       </c>
       <c r="E10">
-        <v>0</v>
+        <v>0.9227621511462393</v>
       </c>
       <c r="F10">
-        <v>0.9048255397810218</v>
+        <v>14</v>
       </c>
       <c r="G10">
-        <v>21</v>
+        <v>850</v>
       </c>
       <c r="H10">
+        <v>11</v>
+      </c>
+      <c r="I10" t="s">
+        <v>66</v>
+      </c>
+      <c r="J10" t="s">
+        <v>67</v>
+      </c>
+      <c r="K10">
         <v>7</v>
-      </c>
-      <c r="I10">
-        <v>850</v>
-      </c>
-      <c r="J10" t="s">
-        <v>66</v>
-      </c>
-      <c r="K10" t="s">
-        <v>67</v>
       </c>
       <c r="L10" t="s">
         <v>68</v>
@@ -5373,34 +5373,34 @@
         <v>53</v>
       </c>
       <c r="B11">
+        <v>0</v>
+      </c>
+      <c r="C11">
+        <v>3</v>
+      </c>
+      <c r="D11">
         <v>0.9</v>
       </c>
-      <c r="C11">
-        <v>2</v>
-      </c>
-      <c r="D11">
-        <v>27</v>
-      </c>
       <c r="E11">
-        <v>0</v>
+        <v>0.9262399692636585</v>
       </c>
       <c r="F11">
-        <v>0.9078463811902305</v>
+        <v>14</v>
       </c>
       <c r="G11">
-        <v>25</v>
+        <v>850</v>
       </c>
       <c r="H11">
+        <v>11</v>
+      </c>
+      <c r="I11" t="s">
+        <v>66</v>
+      </c>
+      <c r="J11" t="s">
+        <v>67</v>
+      </c>
+      <c r="K11">
         <v>7</v>
-      </c>
-      <c r="I11">
-        <v>850</v>
-      </c>
-      <c r="J11" t="s">
-        <v>66</v>
-      </c>
-      <c r="K11" t="s">
-        <v>67</v>
       </c>
       <c r="L11" t="s">
         <v>68</v>
